--- a/deuChatbot/research_result/version_1(1500_100).xlsx
+++ b/deuChatbot/research_result/version_1(1500_100).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F201"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13608,6 +13608,7102 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명된 내용 중 일부는 정확하지만, 배점에 대한 정보가 잘못 기재되어 있습니다. 예를 들어, 산업디자인과 공예디자인의 배점이 15%로 잘못 기재되어 있으며, 원본에서는 기초디자인과 사고의 전환만 언급되었습니다.
+2. Consistency Score (1-5): 3
+   - 원본 텍스트와 생성된 응답 간에 일부 일관성이 있지만, 종목별 배점과 관련된 정보에서 불일치가 발생합니다. 특히, 산업디자인과 공예디자인에 대한 배점이 원본과 다릅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 실기시험에 대한 정보와 관련된 모든 주요 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 배점에 대한 불일치로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 정보의 정확성에서 일부 오류가 발견되며, 특히 배점에 대한 정보가 잘못 기재되어 있습니다. 이는 전체적인 정확성에 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있지만, 사실성과 정확성에서의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 세부 사항에서의 오류가 의미 전달에 영향을 미칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다. 그러나 배점에 대한 혼란이 이해도를 약간 저하시킬 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8224920594782261</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 가지 종목으로 구성되어 있으며, 각 종목별로 배점이 다르게 적용됩니다.
+1. **시각디자인**
+   - **배점**: 700점 중 70% (490점)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "잠자리와 저울"과 같은 조합이 있을 수 있습니다.
+   - **화지크기**: 켄트지 3절
+   - **시간**: 5시간
+2. **산업디자인**
+   - **배점**: 700점 중 15% (105점)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "콜라병과 계절"과 같은 조합이 있을 수 있습니다.
+   - **화지크기**: 켄트지 2절
+   - **시간**: 5시간
+3. **공예디자인**
+   - **배점**: 700점 중 15% (105점)
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "콜라병과 계절"과 같은 조합이 있을 수 있습니다.
+   - **화지크기**: 켄트지 2절
+   - **시간**: 5시간
+실기시험은 각 종목별로 준비물과 주제가 다르므로, 지원자는 해당 종목의 특성을 고려하여 적절한 도구와 시간을 관리해야 합니다. 또한, 제공된 사물이나 이미지는 표현하지 않아야 하며, 색상 변경도 금지되어 있습니다.
+이러한 실기시험은 창의성과 디자인 능력을 평가하기 위해 진행되므로, 지원자는 자신의 아이디어와 표현력을 최대한 발휘할 수 있는 준비를 하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목에 대한 정보를 제공하지만, "시각디자인", "산업디자인", "공예디자인"이라는 항목은 원본 텍스트에 포함되어 있지 않으며, "기초디자인"과 "사고의 전환"이 실기종목으로 명시되어 있습니다. 따라서 일부 정보가 누락되거나 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 반영하고 있지만, 실기종목에 대한 정보가 일관되지 않으며, 원본 텍스트의 구조와 내용과 다소 상충하는 부분이 있습니다. 예를 들어, 실기종목의 목록이 원본과 다릅니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보를 포함하고 있어 대체로 관련성이 높습니다. 그러나 일부 추가된 정보가 원본 텍스트와 일치하지 않아 완전한 관련성을 보장하지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기 쉽고 자연스럽습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 항목이 잘 연결되어 있습니다. 그러나 실기종목의 목록이 원본과 다르기 때문에 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 실기종목에 대한 잘못된 정보가 포함되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 일부 잘못된 정보가 포함되어 있어 완전한 적합성을 보장하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 일부 정보의 부정확성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0.84098260828674</v>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+- 시각디자인
+- 산업디자인 
+- 공예디자인
+- 기초디자인 (사고의 전환)
+준비물:
+볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+실기주제:
+각 실기종목에서 주제A와 주제B를 각 1개씩 선정하여 연결된 주제로 당일 추첨됩니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절" 등이 있습니다.
+화지크기:
+켄트지3절 크기를 사용합니다.
+시간:
+각 실기종목은 5시간 동안 진행됩니다.
+참고로, 준비물 중에서 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상 변경도 금지되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 누락된 정보나 잘못된 정보가 없습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련이 있으며, 매우 적절합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.9828400422676256</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제A와 주제B의 항목들을 모두 포함하고 있습니다. 시험 당일의 절차에 대한 설명도 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 기초디자인 실기시험의 주제에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다. 자연스러운 표현이 사용되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 주제와 시험 절차가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.7948719226399262</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제들은 다음과 같습니다:
+1. 주제A (예시)
+   - 잠자리
+   - 무궁화
+   - 피망
+   - 고양이
+   - 양파
+   - 달팽이
+   - 오렌지
+2. 주제B (예시)
+   - 악보
+   - 줄자
+   - 스카치테이프
+   - 자물쇠
+   - 반코팅장갑
+   - 저울
+   - 얼음
+당신이 제공한 정보에 따르면, 실제 시험에서는 당일 추첨을 통해 주제A와 주제B 각각에서 1개씩 선택하여 연결된 주제를 그려야 합니다.</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 나군 실기/실적 전형에 대한 추가 정보는 원문에 포함되어 있지 않으므로, 이 부분은 원문과의 일치성에서 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 점에서 일관성을 유지하고 있지만, 실기/실적 전형에 대한 정보는 원문과의 일관성을 떨어뜨립니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 학생부 교과 전형과 관련된 질문에 대해 매우 관련성이 높습니다. 출결 점수 반영 여부에 대한 질문에 대한 명확한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있으나 전반적으로 유창합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 실기/실적 전형에 대한 추가 정보가 포함되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있습니다. 그러나 실기/실적 전형에 대한 정보는 원문에 포함되어 있지 않으므로 정확성 점수는 약간 낮습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주고 있습니다. 사실성, 관련성, 유창성 등에서 긍정적인 평가를 받지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 높습니다. 그러나 실기/실적 전형에 대한 추가 정보는 원문과의 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 다만, 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0.6867522237098964</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서는 출결 점수가 직접적으로 반영되지 않습니다. 하지만, 나군 실기/실적(경기실적우수자전형)에서는 출결이 다음과 같이 반영됩니다:
+- 결석일수 / 반영점수
+  - 0~2일 : 120점
+  - 3~6일 : 90점
+  - 7~12일 : 60점
+  - 13~20일 : 30점
+  - 21일이상 : 0점
+미인정, 사고, 무단의 지각/조퇴/결과 3회는 결석 1회로 간주됩니다.
+따라서 학생부교과 전형에서 직접적인 출결 점수 반영은 없지만, 실기/실적 전형에서는 출결이 성적에 영향을 미칠 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 모집 인원인 17명을 정확하게 언급하고 있으며, 원본 텍스트의 사실을 완전히 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 주제인 모집 인원에 직접적으로 관련되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "17 이라는 항목에서 확인할 수 있습니다." 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결되어 있으나, 문장 간의 흐름이 조금 더 매끄럽게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 약간 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.6866751951937153</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 이라는 항목에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 모집 인원인 28명을 정확하게 언급하고 있으며, 원문과 일치하는 정보를 제공합니다. 그러나 "교직"이라는 추가 정보는 원문에 포함되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "교직"이라는 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 원문에 명시된 내용과는 다소 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 질문한 내용과 직접적으로 관련이 있으며, 모집 인원에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "교직"이라는 단어가 문맥상 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 "교직"이라는 추가 정보가 흐름을 약간 방해할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 모집 인원에 대한 정보는 정확하지만, 원문에 없는 "교직"이라는 정보가 포함되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 대체로 일치하지만, "교직"이라는 추가 정보가 문맥에 맞지 않을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, "교직"이라는 단어가 추가되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.6137073324990187</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 정보는 "다군 수능(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 사실이 잘못되었습니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본의 모집 인원과 생성된 응답의 모집 인원이 다릅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 간호학과의 나군 일반학생 전형 모집 인원에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 올바르며, 읽기에도 매끄럽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 일관되며, 주제에 대한 명확한 정보를 제공합니다. 문장 구조가 잘 정리되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성, 유창성, 일관성 측면에서는 긍정적인 평가를 받을 수 있습니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 의미적으로 적절하지 않습니다. 모집 인원에 대한 잘못된 정보가 포함되어 있어 원본 텍스트의 의미와 일치하지 않습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있습니다. 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.7543296042327055</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 나군 일반학생 전형 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 영어 등급에 따른 점수를 올바르게 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 영어 등급에 따른 점수에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, "以下是按照韩语编写的回答："라는 문구가 한국어로 작성된 응답에 적합하지 않아 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 대부분의 의미가 적절하지만, 처음 부분의 중국어 문구가 한국어 응답의 맥락에 맞지 않아 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.7912081550216234</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>以下是按照韩语编写的回答：
+수능 영어 등급별로 다음과 같은 점수가 부여됩니다:
+1등급: 139점  
+2등급: 131점  
+3등급: 123점  
+4등급: 115점  
+5등급: 107점  
+6등급: 99점  
+7등급: 91점  
+8등급: 83점  
+9등급: 75점  
+이 점수들은 등급별로 일정하게 매겨져 있으며, 영어 수능 시험에서 받은 등급에 따라 해당 점수가 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 예술고 출신자가 지원할 수 없다는 점을 반복적으로 강조하고 있습니다. 정보의 일관성이 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 예술고 학생의 지원 자격에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 그러나 전반적인 문법과 문장 구조는 양호합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 추가 정보가 포함되어 있어 약간의 흐름이 끊길 수 있습니다. 그러나 전체적으로는 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다. 그러나 주요 내용은 명확하게 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.6863291485422928</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+[표 추가내용]에서 다음과 같이 명시되어 있습니다:
+"의료·보건·생활, 공과, ICT융합공과대학 모집단위 / 수학(미적분 or 기하)응시자는 수학 취득 표준점수의 10%를 가산점으로 부여/"
+"예술디자인체육대학 모집단위(패션디자인학과 제외) / 국어(화법과작문 or 언어와매체) / 수학(확률과통계 or 미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 or 직업탐구 중 영역 관계없이 2개 과목) / 상위 3개 영역 각 33.33%/"
+"예술고 출신자는 지원할 수 없습니다."
+따라서 예술고 학생은 예외적으로 지원이 제한되어 있으며, 이 전형에서는 예술고 출신자를 지원자 범위에서 제외하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 기록과 배점이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 잘 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확한 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 관련 품질 차원에서 우수한 성능을 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 적합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.8717499661725842</v>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 기록은 218~221cm이며, 이에 대한 배점은 275점입니다.
+따라서 레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록과 배점은 다음과 같습니다:
+- 기록: 218~221cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 반영 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으나, "이 정보는 다음과 같은 표에서 얻었습니다" 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으나, 표 내용이 명확하게 설명되지 않아 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 제공된 정보는 정확하며, 출결 반영 비율에 대한 사실을 올바르게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 응답이 우수하게 수행되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉽지만, 표 내용이 명확하지 않아 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7268958304022475</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 경기지도학과에서 나군 실기/실적(경기실적우수자전형)의 전형요소 중 출결 반영 비율은 12%입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 내용]
+```
+경기지도학과 / { 18% /  12% /  70% / } /
+```
+따라서, 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 원본의 내용을 보완하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 모집 인원에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.7126398315433584</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 물리치료학과의 모집인원으로 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기고사 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.5362942630729318</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 실시됩니다.
+참고로, 해당 일정은 다음과 같습니다:
+- **실기고사 일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능합니다.
+이 일정을 참고하여 준비하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "수능 최저 학력 기준은 없습니다."라는 원문과 상충되는 내용을 포함하고 있습니다. 응답에서는 응용화학과의 수능 최저기준을 추정하고 있으며, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문이 수능 최저 기준이 없다고 명시하고 있는데, 응답에서는 여러 정보를 바탕으로 최저 기준을 추정하고 있습니다. 이는 서로 상충하는 정보입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 원문에 대한 직접적인 답변을 제공하지 않고, 관련 정보를 통해 추정하는 방식으로 진행됩니다. 원문이 명확한 정보를 제공하고 있음에도 불구하고, 응답은 그에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이 떨어져서 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 여러 정보를 나열하고 있으나, 원문과의 관계가 명확하지 않아 일관된 주제를 유지하지 못하고 있습니다. 정보의 흐름이 다소 분산되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원문에서 제공된 정보와 상충하는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문이 명시한 내용을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 맞지 않기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 응답은 원문의 의미와 맥락에 맞지 않으며, 원문이 전달하고자 하는 내용을 왜곡하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 응답은 문법적으로는 이해할 수 있지만, 원문과의 관계가 불명확하여 혼란을 줄 수 있습니다. 따라서 이해하기에는 다소 어려움이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0.43186135016557</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 직접적인 정보를 찾을 수 없습니다. 
+다만, 다른 관련 정보들을 통해 추론할 수 있습니다:
+1. "수능 반영영역 및 가산점" 표에서 응용화학과는 국어(25%), 수학(25%) 그리고 영어(25%) 등급이 반영됩니다.
+2. "수능 전형성적 산출방법" 표에서는 각 모집단위별 수능 성적의 반영 방법이 나열되어 있습니다. 응용화학과도 해당 표에 포함될 것으로 예상됩니다.
+3. "수능(일반학생전형) 최종등록자" 표에서 응용화학과는 31명 모집 인원으로, 평균 수능 점수가 제공되어 있습니다: 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 } : 22 / 3.60
+이러한 정보들을 종합하면, 응용화학과의 수능 최저기준은 대략적으로 다음과 같을 것으로 추정할 수 있습니다:
+- 국어: 85점 이상 (표준 변환 점수 기준으로 평균이 22이고 표준 편차가 3.60이라면)
+- 수학: 90점 이상
+- 탐구 영역(2개): 총 140점 이상
+하지만 이는 추정치이며, 정확한 최저기준은 동의대학교 입학처에서 공식 발표해야 합니다. 따라서 가장 정확한 정보를 얻으려면 동의대학교 입학 홈페이지나 입학처에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과 목록에서 일부 학과를 잘못 기재하였고, 추가적인 학과를 포함하여 잘못된 정보를 제공하고 있습니다. 예를 들어, '부동산자산경역학부'는 원본 텍스트에 포함되어 있지 않으며, 신설된 학과 목록과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 특히 신설된 학과 목록에서 여러 가지 불일치가 발생하고 있습니다. 이는 응답의 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 정보를 제공하고 있으나, 원본 텍스트에 포함되지 않은 추가적인 정보도 포함되어 있어 약간의 주제 일탈이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과에 대한 정보를 나열하고 있지만, 정보의 흐름이 다소 불연속적이며, 주제 간의 연결이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있어 정확성이 낮습니다. 특히 신설된 학과 목록에서 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하지만, 원본 텍스트와의 일치성이 떨어져 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 정보의 일관성이 부족하여 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.5966820685257902</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로 확인된 것은 다음과 같습니다:
+1. 미래융합대학 / 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+2. 미래융합대학 / 부동산자산경역학부 - (부동산투자학, 부동산개발경영학)
+또한 일부 학과의 교직 과정도 신설되었는데, 이는 표에서 다음과 같이 확인할 수 있습니다:
+1. 공과대학 / 건축공학과 - 교직
+2. 공과대학 / 도시공학과 - 교직
+3. 공과대학 / 토목공학과 - 교직
+4. 공과대학 / 환경공학과 - 교직
+5. 공과대학 / 화학공학과 - 교직 - 공학
+6. 공과대학 / 인간공학과 - 교직
+7. 공과대학 / 산업경영빅데이터공학과 - 교직
+8. 공과대학 / 로봇자동화공학과 - 교직
+9. 인문사회과학대학 / 심리학과 - 신설
+10. 상경대학 / 경영학과 - 교직
+11. 상경대학 / 회계학과 - 교직
+이 외에도 일부 학과에서 특정 과정이나 분야가 신설되었음을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 전형요소 반영비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보(모두에 적용된다는 내용)도 원본의 내용을 해치지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8631017883794585</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 : 70%
+- 면접 : 30%
+이 비율은 성인학습자전형 모두에 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '한의예과'라는 특정 학과를 언급하고 있지만, 원본 텍스트에서는 '의료·보건·생활대학', '공과대학', 'ICT융합공과대학'이라는 모집단위를 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '한의예과'에 대한 언급은 원본 텍스트에 없는 내용입니다. 이로 인해 응답의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 가산점에 대한 정보를 제공하고 있으나, 특정 학과에 대한 잘못된 정보가 포함되어 있어 전체적으로는 관련성이 있지만 일부는 부정확합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전체적으로 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 논리적인 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, '한의예과'라는 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 수능 가산점에 대한 의미를 전달하고 있지만, 잘못된 정보가 포함되어 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.6705184181414295</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 특정 학과에서 수능 가산점을 적용합니다. 특히, 한의예과는 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10% 가산점을 부여하고 있습니다.
+상세 내용은 다음과 같습니다:
+- **한의예과**:
+  - 수학(미적분 또는 기하) 응시자: 수학 취득 표준점수의 10% 가산점
+기타 학과에서는 일반적으로 수능 성적이 반영되지만, 추가적인 가산점은 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 2024학년도 가군 수능 성적 반영 방식에 대한 주요 사실을 정확하게 반영하고 있습니다. 그러나 "레저스포츠학과와 태권도학과를 제외한 경우"라는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관성을 유지하고 있습니다. 그러나 특정 학과에 대한 언급이 원문에 없기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 성적 반영 방법에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 문장 구조가 복잡할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 일부 문장이 다소 길어 이해하기 어려울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 특정 학과에 대한 언급이 원문에 없으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하고 있으며, 주제에 적합한 내용을 담고 있습니다. 다만, 특정 학과에 대한 언급이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길고 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.8417077208981263</v>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 전형 요소 중 100%로 반영됩니다. 
+가군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율 표에 따르면, 모든 모집단위에서 수능 성적만을 기준으로 학생들을 평가합니다 (레저스포츠학과와 태권도학과를 제외한 경우).
+수능성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조할 수 있습니다.
+따라서 지원자는 해당 학교의 수능 성적을 잘 준비하고, 특히 국어, 수학, 영어 등 주요 과목의 성적을 높이는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기고사 날짜에 대한 정보를 포함하고 있지만, 원본 텍스트에 명시된 날짜(2024년 1월 16일) 외에 추가적인 날짜(2024년 1월 17일)와 관련된 정보가 포함되어 있습니다. 이로 인해 일부 사실이 왜곡되었으므로 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 날짜와 일치하는 부분이 있지만, 추가적인 날짜와 학과 정보가 포함되어 있어 일관성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하지만, 추가적인 세부사항이 포함되어 있어 주제에서 약간 벗어난 느낌이 있습니다. 그러나 여전히 관련성이 높으므로 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 구조로 작성되어 있습니다. 따라서 점수를 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있지만, 추가적인 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다. 그러나 여전히 잘 구성되어 있으므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 원본 텍스트의 정확한 날짜 정보는 포함되어 있지만, 추가적인 날짜가 포함되어 있어 정확성이 떨어집니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이지만, 사실성과 일관성에서 약간의 문제가 있어 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 추가적인 정보가 포함되어 있어 약간의 의미적 불일치가 발생합니다. 따라서 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가적인 정보로 인해 약간의 혼란이 있을 수 있습니다. 따라서 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0.6876466277007804</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 다음과 같이 일정이 정해져 있습니다:
+- **레저스포츠학과, 태권도학과**:
+  - 날짜: 2024. 01. 16.(화)
+  - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능합니다.
+- **디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**:
+  - 날짜: 2024. 01. 17.(수)
+  - 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능합니다.
+이 일정을 참고하여 준비하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 잘못 해석하고 있습니다. 이들 학과가 제외된 것이 아니라, 실기/실적 위주로 평가받는다고 설명하고 있으나, 원문에서는 이들 학과가 전형에서 제외된다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 전형에서 제외된 학과에 대한 정보가 잘못 전달되고 있습니다. 원문에서는 이들 학과가 제외된다고 명시하고 있지만, 생성된 응답에서는 실기/실적 위주로 평가받는다고 설명하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 학과들에 대한 정보를 포함하고 있지만, 전형에서 제외된다는 핵심 정보를 잘못 전달하고 있어 관련성은 있지만, 정확한 정보가 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 방해가 될 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장들로 구성되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보의 흐름은 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다르며, 전형에서 제외된 학과에 대한 정보가 잘못 전달되고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원문과의 불일치로 인해 의미 전달이 왜곡되었습니다. 따라서 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.6507060114265946</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 실기/실적 위주로 평가받습니다. 이들 모집단위는 전형요소 반영비율에서 수능 비중이 0%이며, 대신 실기나 실적 비중이 높게 설정되어 있습니다.
+따라서, 디자인조형학과와 체육학과는 실기/실적 위주로 평가받으며, 나머지 한의예과와 경기지도학과도 마찬가지입니다. 이들 모집단위에서 수능 성적이 고려되지 않고, 대신 실기나 실적 기준이 주요하게 반영됩니다.
+참조할 수 있는 표는 다음과 같습니다:
+[표 제목 : 전형요소 반영비율]
+```
+실기/실적 위주 / 나군 수능(일반학생전형) 디자인조형학과, 체육학과 / 24 / 일괄 합산 / { 0 /  0 /  0 /  70 /  30 / } / 수능최저기준 없음 /
+실기/실적 위주 / 나군 실기/실적(일반학생전형) 경기지도학과 / 7 / 일괄 합산 / { 18 /  12 /  70 /  0 /  0 /  0 / } / 수능최저기준 없음 /
+```
+위 표에서 디자인조형학과와 체육학과는 각각 실기/실적 비중이 30%이며, 경기지도학과는 실기 비중이 70%로 높게 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 수능 최저기준이 적용되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가적으로 "수능최저기준 없음"이라는 정보도 제공하고 있어 사실성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 수능 최저기준이 적용되지 않는다는 내용을 반복적으로 강조하고 있습니다. 따라서 일관성이 매우 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수능 최저기준에 대한 정보를 명확하게 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공하는 정보와 완벽하게 일치하며, 사실에 대한 정확성을 유지하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 매우 높은 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 문맥에 적합한 내용을 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0.8277740752904194</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준은 적용되지 않습니다. 이는 표에서 "수능최저기준 없음"으로 명시되어 있습니다.
+관련 정보:
+- [표 제목] : 전형요소 반영비율
+- [모집단위] : 다군 수능(일반학생전형) 전 모집단위
+- [전형요소 반영비율] : { 0 /  0 /  0 /  0 /  0 /  100 / }
+- [수능최저기준] : 수능최저기준 없음
+따라서, 다군 전형의 경우 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학부에서 학과로 분리된 내용을 정확히 나열하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있어 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 의미 전달이 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.8559917488026653</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이러한 분리로 인해 학부의 구조가 변경되었으며, 각 학과는 독립된 전공으로 운영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원본 텍스트와 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 정보도 제공하므로 일관성이 높습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 추가 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어집니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0.7837531835269903</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에 따르면, 원서접수 마감일은 **2024년 1월 6일(토) 18시**까지입니다. 
+원서접수 사이트 접속이 차단되므로, 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다. 또한, 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임이 있으므로 유의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 잘못된 부분이 많습니다. 예를 들어, 수능 위주 전형에 대한 언급이 있지만, 원본 텍스트에는 수능 관련 정보가 포함되어 있지 않습니다. 또한, 학생부교과 전형에 대한 설명도 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 원본 텍스트의 전형 요소 변화와 생성된 응답의 내용이 서로 충돌하는 부분이 많습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변을 시도하고 있지만, 원본 텍스트의 주요 내용과는 관련이 적습니다. 일부 내용은 관련이 있지만, 전체적으로는 주제에서 벗어난 정보가 많습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 흐름이 약간 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 전형에 대한 설명이 나열되어 있지만, 원본 텍스트와의 연결이 부족하여 일관된 논리적 흐름이 결여되어 있습니다. 각 전형의 설명이 독립적으로 존재하는 느낌이 강합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히 전형 요소에 대한 설명이 원본과 다르게 기술되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 낮은 점수를 받고 있습니다. 원본 텍스트와의 관계가 약해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 포함하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용의 정확성과 관련성 부족으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.733754457135674</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 변경된 전형 요소는 다음과 같습니다:
+1. **수능 위주 전형 (가군, 나군, 다군)**:
+   - 모든 수능 위주의 전형에서는 수능 최저기준이 제시되지 않았습니다.
+2. **실기/실적 위주 전형**:
+   - 실기/실적 위주의 전형에서도 수능 최저기준이 제시되지 않았습니다.
+3. **학생부교과 전형 (나군)**:
+   - 학생부교과 전형에서는 학생부 교과 성적이 100% 반영되었습니다.
+   - 다른 전형들과 달리 출결, 서류, 면접, 실기 요소가 반영되지 않았습니다.
+4. **학생부종합 전형 (나군)**:
+   - 재직자전형에서는 학생부 교과 성적이 70%와 면접이 30%로 반영되었습니다.
+   - 조기취업형 계약학과 전형에서도 학생부 교과 성적이 60%와 출결이 40%로 반영되었습니다.
+이러한 변화는 각 전형별로 다르게 적용되므로, 지원자들은 해당 전형의 특징을 잘 이해하고 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 정확하게 반영하고 있습니다. 그러나 "이 정보는 다음과 같은 표에서 얻었습니다"라는 부분은 출처가 명확하지 않으며, 표 내용이 실제로 존재하는지 확인할 수 없습니다. 따라서 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 실기 비중이 70%라는 점에서 일관성을 유지하고 있지만, 추가된 표 내용이 실제로 출처와 일치하는지 불확실합니다. 표 내용이 실제로 존재하지 않거나 잘못된 정보일 경우 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 실기 비중에 대한 정보를 명확하게 전달하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "이 정보는 다음과 같은 표에서 얻었습니다"라는 문장이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 실기 비중에 대한 정보가 명확하게 전달됩니다. 그러나 표 내용이 추가되면서 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 실기 비중이 70%라는 정보는 정확하지만, 표 내용의 출처가 불명확하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 표 내용의 출처 문제로 인해 약간의 감점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 표 내용이 추가되면서 약간의 의미 혼란이 발생할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 표 내용이 추가되면서 약간의 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0.7847335127175773</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 다음과 같은 표에서 얻었습니다:
+[표 내용]
+```
+가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% /  70% / } /
+```
+따라서 가군 실기/실적 전형에서 수능은 30%, 실기는 70%의 비중을 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공 목록이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, 마지막 문장에서 중국어가 포함되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 중국어 문장이 포함되어 있어 일관성이 약간 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 높은 품질을 보이나, 중국어 문장이 포함되어 있어 약간의 품질 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적합하지만, 중국어 문장이 포함되어 있어 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 대체로 이해하기 쉽지만, 중국어 문장이 포함되어 있어 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.7908786574722974</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 '라이프융합학부'는 다음과 같은 세부 전공으로 구성되어 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业共同构成了新设立的「生活融合学部」。</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 '태권도학과'를 언급하고 있지만, 원본 텍스트에는 '체육학과'가 포함되어 있습니다. 따라서 사실관계에서 오류가 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, '체육학과' 대신 '태권도학과'를 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사에 참여해야 하는 학과에 대한 정보를 제공하고 있으나, 잘못된 학과가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: '태권도학과'라는 잘못된 정보가 포함되어 있어 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 중간 정도의 품질을 보이지만, 사실관계와 정확성에서 큰 문제가 있어 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 관련된 내용을 다루고 있으나, 잘못된 학과 정보로 인해 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.761972087880176</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과는 가군 수능(일반학생전형)에서 실기고사가 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과를 정확하게 나열하고 있으며, 추가적인 정보도 포함되어 있지만, "가군", "나군", "다군"이라는 분류는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 군별로 나누어 설명하는 방식이 원본과 일치하지 않아서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기/실적 위주 전형에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽지만 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 각 학과에 대한 설명이 명확하게 이어지지만, 군별로 나누어 설명하는 부분에서 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 제공된 정보는 대체로 정확하지만, 군별 분류와 같은 추가 정보는 원본 텍스트에 포함되어 있지 않아 정확성에 약간의 의문이 생깁니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하며, 원본 텍스트의 맥락에 잘 맞지만, 군별 분류는 원본의 의미와 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 군별 설명이 추가되어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.6531585187274934</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "실기/실적(일반학생전형)"은 다음과 같은 학과에서 시행됩니다:
+1. 가군:
+   - 레저스포츠학과
+   - 태권도학과
+2. 나군:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 체육학과
+3. 다군: 
+   - 경기지도학과
+따라서 실기/실적 위주 전형인 "실기/실적(일반학생전형)"을 지원하려면 위의 학과 중 하나를 선택해야 합니다.
+참고로, 이 외에도 다른 전형 유형도 존재하며 각각의 모집단위와 전형요소 반영비율이 다릅니다. 자세한 내용은 동의대학교 입학처 웹사이트나 관련 안내서를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 전공 목록을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공 목록과 학부의 목적에 대한 설명이 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 깊으며, 전공과 학부의 목표에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 부합합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.9344386863464569</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부에서는 다음과 같은 전공을 제공합니다:
+1. 스타트업 창업투자학
+2. 뷰티 비즈니스학
+3. 라이프 생활문화학
+이 학부는 신설된 프로그램으로, 다양한 삶의 질 향상을 위한 교육과 연구를 목표로 하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하지 않고, 농어촌학생전형에 대한 정보만을 제공하고 있습니다. 이는 원문에서 제공하는 중요한 정보를 누락한 것입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제에서 벗어난 부분이 있습니다. 원문에서 질문한 내용에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원문과는 다른 언어로 작성되어 있어, 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 제안을 포함하고 있지만, 원문과의 연결성이 부족하여 일관성이 떨어집니다. 원문에서의 질문에 대한 명확한 답변이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 농어촌학생전형에 대한 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과의 의미적 일치성이 떨어지며, 질문의 맥락을 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.4798891509891003</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>你不属于农村或偏远地区，而且你是特殊目的高中毕业生。根据提供的信息，你不符合农林中学学生成员资格的要求。因此，你不能通过农林中学学生专项招生计划申请东义大学的一般学生招生。
+但是，你可以尝试以下几种方式来申请：
+1. **普通高考（一般学生招生）**：如果你符合普通高考的报名条件，可以参加并通过普通高考申请东义大学。
+2. **其他特殊招生计划**：查看是否有适合你的其他特殊招生计划，例如艺术、体育等特长生招生。
+建议你访问东义大学官方网站或联系招生办公室获取最新的招生信息和具体要求。</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 나군 전형에서 가장 많이 모집하는 학과에 대한 정보가 잘못되었습니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 라이프융합학부가 가장 많이 모집한다고 잘못 기술하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 일관되지 않습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 나군 전형의 모집 인원에 대한 정보를 제공하고 있지만, 원문에서 질문한 내용과는 다소 벗어난 정보입니다. 원문에서 요구하는 정보에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 전체적으로 일관된 주제를 유지하지 못하고 있습니다. 원문과의 연결이 약해 보입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 모집 인원과 학과에 대한 정보가 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않은 부분이 있습니다. 원문에서 요구하는 정보와는 다소 동떨어진 내용이 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 정보의 복잡성과 원문과의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.6622653887888674</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원 내 모집인원, &lt;나&gt;군 일반학생전형, &lt;나&gt;군 농어촌학생전형, &lt;나&gt;군 평생학습자전형, &lt;나&gt;군 성인학습자(정원내/외)전형, &lt;나&gt;군 재직자전형 등의 모집인원을 합산한 값을 확인해야 합니다.
+제공된 표에서 나군 전형의 모집단위 및 모집인원은 다음과 같이 나타납니다:
+- 미래융합대학 인문사회 계열 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학): 학생부종합(평생학습자전형) 11명, 학생부종합(성인학습자(정원외)전형) 23명, 학생부종합(성인학습자(정원내)전형) 7명, 학생부종합(재직자전형) 7명
+- 미래융합대학 인문사회 계열 부동산자산경영학부 (부동산투자학, 부동산개발경영학): 학생부종합(성인학습자(정원외)전형) 17명
+이 중에서 가장 많은 모집인원을 보이는 학과는 **미래융합대학 인문사회 계열 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)**로 31명(11 + 23)을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **미래융합대학 인문사회 계열 라이프융합학부 - 신설 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)**입니다.</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 지원 자격에 대한 잘못된 정보를 제공합니다. 원문에서는 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없다고 명시하고 있지만, 생성된 응답은 농촌이나 벽지에 해당하지 않기 때문에 지원 자격이 없다고 잘못 해석하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 특정 학교 출신자에 대한 지원 불가를 명확히 하고 있지만, 생성된 응답은 그와는 다른 주장을 하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련이 있지만, 주제에서 벗어난 부분이 있습니다. 원문은 지원 자격에 대한 구체적인 정보를 제공하는 반면, 생성된 응답은 농촌 지역에 대한 언급으로 주제를 흐리고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 논리적인 흐름이 부족합니다. 원문에서 제시한 정보와 관련이 없거나 잘못된 정보를 포함하고 있어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 지원 자격에 대한 잘못된 해석이 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 의미적으로 일치하지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4264480689821336</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>你不属于农村或偏远地区，因此不符合东义大学学生部课程（针对农村学生的招生计划）的申请资格。该计划专门面向在农村或偏远地区的中学和高中就读并居住的学生。
+如果你有其他问题或者需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 없다는 사실을 정확하게 반영하고 있습니다. 그러나 추가 정보로 제공된 내용은 원본 텍스트와 직접적인 관련이 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 일치하지만, 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있으나, 추가적인 세부사항이 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊습니다. 합격자 평균 성적에 대한 정보가 없다는 점을 강조하고 있으며, 추가적인 정보 제공도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가 정보가 포함되어 있어 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가 정보도 사실에 기반하고 있습니다. 그러나 원본 텍스트의 핵심 정보에 대한 집중이 부족할 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 품질을 보여주고 있으며, 사실성, 관련성, 유창성 등에서 긍정적인 평가를 받을 수 있습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 추가 정보가 원본의 주제와 완전히 일치하지 않기 때문에 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 추가 정보가 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>0.6390292004586924</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부의 합격자 평균 성적에 대한 데이터가 없습니다. 현재 있는 정보는 다음과 같습니다:
+- 소프트웨어공학과는 공과대학 공학 계열에 속해 있습니다.
+- 나군 학생부종합전형의 경우, 전형요소 반영비율이 70% 서류 / 30% 면접으로 되어 있지만, 이는 특정 학과의 성적 평균을 의미하지 않습니다.
+2024학년도 소프트웨어공학부 합격자들의 평균 성적에 대한 정보를 찾으시려면, 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해 보시는 것이 가장 정확할 것입니다. 해당 사이트에서는 각 학과별 최초합격자 및 충원 합격자의 성적 분포와 같은 자료가 공개될 수 있습니다.
+만약 추가 정보가 필요하시다면, 동의대학교 입학처에 직접 문의해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 성적 정보가 제공되지 않음을 정확하게 반영하고 있습니다. 그러나 "정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없다"는 표현은 다소 모호하게 느껴질 수 있습니다. 전체적으로 사실에 기반하고 있지만, 약간의 불확실성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 소프트웨어공학부에 대한 평균 성적 정보가 없음을 강조하고 있습니다. 그러나 "현재 제공된 데이터는 공과대학의 전반적인 모집단위별 평균 성적을 나타내고 있다"는 부분은 원본 텍스트에서 명시되지 않은 정보로, 약간의 일관성 문제를 발생시킵니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다. 소프트웨어공학부의 평균 성적 정보가 없다는 점을 명확히 하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 그러나 일부 문장이 길어져서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 그러나 "정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없다"는 표현이 다소 애매하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 약간의 모호함과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞아떨어지며, 적절한 의미를 전달하고 있습니다. 다만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 긴 문장으로 인해 약간의 혼란을 줄 수 있습니다. 명확한 표현이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.6125378382940896</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 정확한 최초합격자 평균 성적 정보가 제공된 표에서 확인할 수 없습니다. 현재 제공된 데이터는 공과대학의 전반적인 모집단위별 평균 성적을 나타내고 있으며, 특정 학부(예: 소프트웨어공학부)에 대한 정보는 포함되어 있지 않습니다.
+제공된 "수능(일반학생전형) 최초합격자" 표에서는 단과대학 및 모집단위별로 평균 성적을 제공하고 있지만, 소프트웨어공학부에 대한 데이터가 없습니다. 
+만약 특정 학부의 최초합격자 평균 성적을 알고 싶다면, 해당 학부의 모집단위를 확인한 후 표에서 해당 정보를 찾아보시거나, 대학 입학처나 관련 홈페이지를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 주요 정보를 포함하고 있으며, 원본 텍스트의 내용을 대체로 정확하게 반영하고 있습니다. 그러나 "전화 연락 두절"과 같은 추가 정보는 원본 텍스트에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가된 내용이 원본과의 일관성을 떨어뜨립니다. 특히 전화 연락 두절에 대한 언급은 원본 텍스트에 포함되어 있지 않아 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격자 발표 일정에 대한 정보를 잘 다루고 있습니다. 모든 내용이 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 정보가 원본과의 연결성을 약간 떨어뜨리므로 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 추가된 정보로 인해 일부 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있지만, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.7927404028455901</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 최초합격자부터 2차 충원합격자 발표까지는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 조회해야 합니다.
+또한, 3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+따라서 정확한 합격자 발표 일정은 해당 대학의 공식 홈페이지를 통해 확인하시거나, 제공된 문구에 따라 해당 기간 내에 합격 여부를 확인해 주세요.</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 면접고사 일정에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트의 핵심 사실을 왜곡하고 있습니다. 원본 텍스트는 면접고사 일정이 2024년 1월 20일이라고 명시하고 있지만, 생성된 응답은 면접이 이 기간 내에 이루어진다고만 언급하고 있습니다. 또한, 다른 날짜와 정보가 포함되어 있어 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트의 면접고사 일정과 관련된 정보가 명확하게 제시되지 않고, 다른 일정과 정보가 혼합되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로 일부 관련성을 가지고 있지만, 주된 질문인 면접고사 일정에 대한 직접적인 정보는 부족합니다. 다른 일정에 대한 정보가 포함되어 있지만, 주제와의 관련성이 약합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 불명확하여 일관된 논리적 흐름이 부족합니다. 면접고사 일정에 대한 정보가 명확하게 연결되지 않고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 면접고사 일정에 대한 정확한 정보가 제공되지 않고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 관련성도 부족하여 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 면접고사 일정에 대한 질문에 대한 적절한 답변이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 정보의 흐름이 다소 혼란스러워 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>0.5068201580938206</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>2024년 2월 7일부터 13일까지 합격자 발표 및 등록금 납부를 진행합니다. 최초합격자는 2024년 2월 2일 금요일 오후 2시에 홈페이지에서 발표됩니다.
+면접은 이 기간 내에 이루어집니다. 면접 일정과 관련된 자세한 정보는 입학안내 홈페이지를 통해 확인하실 수 있습니다. 대기실 및 입실 시간 안내는 2024년 1월 12일 금요일 오후 2시 이후, 입학안내 홈페이지에서 조회 가능합니다.
+따라서 면접을 보러 가려면 2024년 1월 16일 화요일부터 시작되는 실기고사 일정과 함께 준비하시면 좋습니다. 자세한 일정은 공식 입학 안내 사이트를 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 무시하고, 일반적인 입학 요건에 대한 정보를 제공하고 있습니다. 이는 원문과 상충되는 정보로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, 원문에서 언급된 "최저학력 기준이 없다"는 내용과 모순됩니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하려고 하지만, 원문에서 명시된 내용과는 다르게 일반적인 입학 요건을 설명하고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 약간 떨어집니다. 원문과의 관계를 명확히 하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 낮습니다. 최저학력 기준이 없다는 사실을 무시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 품질 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 맥락이 맞지 않아 일부 내용이 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.5786688975316174</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 한의예과의 최저학력 기준에 대한 정보는 제공된 데이터에서 명시되어 있지 않습니다. 하지만 일반적으로 한의예과의 입학 요건은 다음과 같습니다:
+1. 고등학교 졸업 자격 또는 법령에 따른 동등 학력을 갖추어야 합니다.
+2. 수능(수학 미적분 또는 기하) 응시는 필수입니다.
+상세한 최저학력기준은 동의대학교 입학처 웹사이트를 참조하시거나, 직접 문의하시는 것이 가장 정확할 것입니다. 필요하다면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 링크를 통해 공식 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 무시하고 있으며, 2024년의 최소 입학 점수 요구 사항에 대한 정보를 제공하지 않고 있습니다. 또한, 동의대학교에 대한 잘못된 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 동의대학교의 수능 최저학력 기준이 없다는 내용을 반영하지 않고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준에 대한 질문에 대한 직접적인 답변을 제공하지 않으며, 관련성이 낮습니다. 그러나 동의대학교의 공식 웹사이트를 언급한 점은 다소 관련성이 있지만, 주제와는 거리가 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 괜찮지만, 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려울 수 있습니다. 따라서 유창성 점수는 중간 정도입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 주제와 관련이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 잘못 전달하고 있으며, 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려운 부분이 많습니다. 따라서 이해 가능성 점수는 낮습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.4655849417862526</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>提供的信息中没有提到具体的关于2024年招生的最低录取分数要求（수능 최저학力基准）。通常情况下，大学会根据各专业的不同设定相应的最低录取标准。对于东国大学来说，具体的最低录取分数要求可能会在学校的官方网站上公布。
+建议您访问东国大学的官方网站或联系学校招生办公室以获取最新的最低录取分数要求信息。网址是：https://ipsi.deu.ac.kr/main.do
+如果您需要了解一般性的指导原则或者过去几年的数据作为参考，可以查看该网站上的相关信息。</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 사실을 정확하게 반영하고 있습니다. 그러나 "2024년 2월 15일(목)부터 충원합격자 발표가 시작됩니다"라는 문장은 약간의 오해를 불러일으킬 수 있습니다. 1차 발표는 2월 14일에 이루어지기 때문에 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "이후 3차 이후의 충원합격자는 개별 전화 통보 방식으로 발표됩니다"라는 문장은 원본 텍스트의 내용을 약간 다르게 해석하고 있습니다. 원본 텍스트는 3차 발표에 대한 구체적인 언급이 없으므로 이 부분에서 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 발표 일정과 관련된 모든 정보를 포함하고 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 "이후 3차 이후의 충원합격자는"이라는 표현은 약간 어색하게 들릴 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 흐름이 자연스럽습니다. 그러나 일부 문장이 다소 중복되거나 불필요하게 길어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 3차 발표에 대한 언급이 원본 텍스트와 다르게 해석될 수 있어 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있습니다. 사실성, 일관성, 관련성, 유창성 등에서 전반적으로 높은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확합니다. 그러나 일부 문장이 길어지면서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.8557222001125078</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 충원합격자 발표가 시작됩니다. 
+발표 일정은 다음과 같습니다:
+- 2024. 02. 14.(수) 09:00 - 1차 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00 - 2차 충원 합격자 발표
+이후 3차 이후의 충원합격자는 개별 전화 통보 방식으로 발표됩니다 (2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지).
+모든 지원자는 이 일정에 따라 합격 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 충원 합격자 발표 일정과 방식에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.8410692651728763</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차까지의 충원 합격자 발표가 이루어집니다. 구체적으로:
+- 2024. 02. 14.(수) 09:00 - 1차 충원 합격자 발표
+- 2024. 02. 15.(목) 09:00 - 2차 충원 합격자 발표
+이 외에도 3차 이후의 충원 합격자는 개별 전화 통보 방식으로 발표되며, 시간은 2024. 02. 15.(목) 19:00부터 2024. 02. 20.(화) 18시까지입니다.
+따라서 추가합격자 발표는 2월 중순부터 진행되며, 특히 3차 이후의 합격자는 개별 전화 통보 방식으로 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수시모집 등록자의 등록 포기로 인한 결원이 정시 일반학생전형 모집인원으로 이월되어 추가 합격자를 선발한다는 사실을 정확하게 반영하고 있습니다. 그러나 "정시&lt;나&gt;군으로 이월하여"라는 부분은 원문에 명시된 내용과 다소 차이가 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "정시&lt;나&gt;군으로 이월하여"라는 표현이 원문과 일치하지 않아 일관성이 떨어집니다. 또한, 졸업예정자의 경우에 대한 언급이 추가되어 원문과의 일관성이 약간 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 추가모집에 대한 가능성을 언급하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "정시&lt;나&gt;군으로" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장이 원문과의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공하는 정보의 대부분을 정확하게 반영하고 있지만, "정시&lt;나&gt;군으로"라는 표현이 원문과 다소 다르기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 표현에서 약간의 부정확성이 있어 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 높지만, "정시&lt;나&gt;군으로"라는 표현이 원문과의 의미적 일치성을 약간 떨어뜨립니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 표현에서 약간의 혼란을 줄 수 있는 부분이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.7782719034354714</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>2024년 정시모집에서 일부 모집단위는 추가모집이 이루어질 수 있습니다. 구체적으로, 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소되며, 이로 인한 결원은 정시&lt;나&gt;군으로 이월하여 추가 합격자를 선발할 수 있습니다. 또한, 수시모집 등록자의 등록(입학) 포기로 인한 결원도 정시 일반학생전형 모집인원으로 이월하여 추가 합격자를 선발합니다.
+따라서, 특정 모집단위에서 추가모집이 이루어질 가능성이 있습니다. 하지만 확실한 정보는 해당 대학의 공식 홈페이지나 입학처와 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형에 대한 정보의 일부를 포함하고 있지만, 내용이 중국어로 작성되어 있어 원본 텍스트의 세부 사항을 정확하게 반영하지 못하고 있습니다. 또한, 특정 세부 사항(예: 모집인원, 전형요소 반영 비율 등)이 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 많습니다. 예를 들어, 원본 텍스트의 특정 세부 사항이 누락되거나 잘못 해석되어 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 다소 차이가 있습니다. 일부 정보는 관련이 있지만, 전체적으로는 원본 텍스트의 핵심 포인트를 충분히 다루지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원본 텍스트와의 관련성 때문에 내용의 흐름이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져 전체적인 일관성이 부족합니다. 따라서 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 못하고 있으며, 일부 정보가 잘못되거나 누락되어 있습니다. 특히, 모집인원과 제출서류에 대한 정보가 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두 부족하여 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 원본 텍스트와의 관련성 부족으로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.571045184552328</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>평생학習者轉型是指針對已經完成高中教育或具有同等學力的成年人，提供進一步學習和深造機會的一種招生方式。以下是关于平生学習者转型（平生學習者轉型）的一些关键信息：
+1. **适用对象**：适用于已经完成高中教育或具有同等学力的成年人。
+2. **年龄要求**：没有特定的年龄限制，但通常面向30岁以上的人群。
+3. **招生方式**：
+   - 采用学生综合评价（學生部綜合評價）的方式进行选拔。
+   - 包括提交学校成绩单、个人经历和兴趣等材料，并通过面试来评估申请者的综合素质。
+4. **报名时间**：报名时间为2024年1月3日（星期三）至1月12日（星期五）17:00止，以到达为准。
+5. **提交地点**：提交地址为（邮编：47340），韩国釜山市东区严光路176号，동의대학교 입학관리팀。
+6. **所需材料**：
+   - 高中成绩单1份。
+   - 检定考试合格证书副本或证明书1份。
+   - 检定考试成绩证明书1份（在线提供同意者无需提交）。
+   - 学校生活记录表替代文件（选择性提交，参考47页[学校生活记录表替代文件]格式）。
+7. **注意事项**：
+   - 所有文件原则上需原件提交。特殊情况无法重新获取原件的，可先展示原件后提交复印件，并由本校入学管理团队确认后退回原件。
+   - 最终注册者中，预计毕业的高中学生必须在2024年2月16日（星期五）之前补充提交毕业证明书（附带领事认证或韩国领事馆认证）。
+8. **其他信息**：有关报名、考试和录取的具体细节，请访问学校官方网站或联系招生办公室。</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에 포함되지 않은 추가적인 조건들을 포함하고 있습니다. 원본 텍스트는 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자라는 지원 자격만을 명시하고 있지만, 생성된 응답은 재직기간, 증빙서류, 4대 보험 가입 여부 등 여러 가지 조건을 추가하여 사실과 다르게 표현하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 여러 조건을 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 지원 자격과 생성된 응답의 내용이 서로 충돌하는 부분이 많습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 조건들이 원본의 핵심 내용을 흐리게 하고 있습니다. 원본 텍스트의 지원 자격에 대한 정보는 포함되어 있으나, 불필요한 정보가 많아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조건을 나열하고 있지만, 이들 간의 논리적 연결이 부족하여 일관된 흐름이 떨어집니다. 각 조건이 독립적으로 나열되어 있어 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 추가된 조건들이 사실과 다를 수 있습니다. 원본 텍스트의 지원 자격에 대한 정확한 정보가 반영되지 않았습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성 모두에서 부족한 점이 많습니다. 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 조건들이 원본의 의미를 왜곡하고 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 내용이 복잡해지면서 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.8054163214949914</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고등학교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자입니다.
+2. 재직기간이 3년 이상인 자여야 합니다 (2024년 3월 1일 기준).
+3. 지원자격 증빙서류 상으로 증명되는 기간만 산정되며, 중복된 기간은 이중으로 합산하지 않습니다.
+4. 4대 보험 중 1개 이상 가입 사업체 또는 근로기준법 제11조에 따라 상시근로자 5인(사업주 포함) 이상의 사업체에서 근무한 자여야 합니다 (창업·자영업자도 포함).
+5. 군 의무복무 경력도 재직기간으로 인정됩니다.
+6. 국가 또는 지방자치단체 소속 직원이거나, 공공 단체 소속 직원인 경우에도 지원 가능합니다.
+위와 같은 조건을 충족해야 평생학습자전형의 지원 자격을 갖추게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 정보를 제공하지만, 원본 텍스트에서 언급된 대기실 및 입실시간에 대한 정보는 포함되어 있지 않으며, 여러 학과의 실기종목과 준비물에 대한 정보가 추가되어 있어 원본 텍스트와의 일관성이 떨어진다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 내용을 포함하지 않고, 여러 학과의 실기 정보로 대체하고 있어 일관성이 부족하다. 원본 텍스트와의 연결이 약해 보인다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 아니므로 관련성이 떨어진다. 원본 텍스트의 핵심 정보와는 거리가 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과의 정보를 나열하고 있지만, 각 정보 간의 연결이 약해 전체적으로 일관된 흐름이 부족하다. 정보가 분산되어 있어 논리적 일관성이 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있으며, 원본 텍스트의 핵심 정보인 대기실 및 입실시간에 대한 내용이 누락되어 있다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 부족한 점이 많아 전반적인 품질이 낮다. 사실성, 일관성, 관련성 모두에서 문제를 보인다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 질문과는 다소 동떨어진 내용이므로 의미적으로 적절하지 않다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 정보가 많아 다소 복잡하게 느껴질 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.4872471922446512</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사에 대한 정보는 다음과 같습니다:
+1. **체육학과**:
+   - **실기종목**: 제자리 멀리뛰기, 메디신볼 던지기, Z-런
+   - **장소**: 체육관이나 운동장 등 실내외에서 실시될 수 있습니다.
+   - **준비물**: 운동복 및 운동화 (스파이크나 축구화는 불가능하며, 신발바닥에 이물질 가칠 금지)
+   - **기타**: 부상이나 기타 사유로 인해 기권한 경우 최저점수를 받게 됩니다. 각 종목별 2회 반칙 시에도 최저점수를 받습니다.
+2. **레저스포츠학과**:
+   - **실기종목**: 제자리 멀리뛰기, Z-런
+   - **장소**: 실내체육관 등에서 실시됩니다.
+   - **준비물**: 운동복 및 운동화 (특수화는 불가능하며, 신발바닥에 이물질 가칠 금지)
+   - **기타**: 부상이나 기타 사유로 인해 기권한 경우 최저점수를 받게 됩니다. 각 종목별 2회 반칙 시에도 최저점수를 받습니다.
+3. **디자인조형학과**:
+   - **실기종목**: 시각디자인, 산업디자인, 공예디자인 중 택1
+   - **장소**: 예술실이나 작업실 등에서 실시됩니다.
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+   - **기타**: 주제와 화지 크기는 당일 추첨으로 결정되며, 시간은 5시간입니다.
+실기고사는 각 학과별로 다른 장소에서 실시되므로, 해당 학과의 공지사항이나 안내를 확인하여 정확한 장소를 파악하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 실기종목에 대한 장소와 준비물에 대한 내용을 담고 있습니다. 이는 원본 텍스트의 정보와 전혀 관련이 없으며, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 정보가 아닌 다른 내용을 포함하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 실기고사 대기실 및 입실시간에 대한 질문에 대한 답변이 아닙니다. 매우 낮은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 이 점수는 제한적입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 담고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용이 원본과 관련이 없기 때문에 이 점수는 제한적입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.3249027388570014</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같은 장소에서 진행됩니다:
+- 제자리 멀리뛰기: 해당 장소에서는 이 실기종목을 수행합니다.
+- 메디신볼 던지기: 메디신볼 던지기를 수행하는 장소가 필요합니다.
+- Z-런: Z-런이라는 특정 운동 경로를 따라 달리는 장소에서 진행됩니다.
+각 실기종목은 특별한 장비와 운동복을 착용해야 하며, 신발바닥에 이물질이 가착되지 않도록 주의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3차 이후 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우에 대한 내용을 추가하고 있지만, 원본 텍스트에서 명시된 "전화로 개별 연락을 하지 않는다"는 사실과는 다소 상충하는 부분이 있습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원본과의 일관성이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 전화 연락 두절에 대한 언급이 원본의 주된 내용과 상충하여 일관성이 떨어집니다. 원본에서는 전화 연락을 하지 않는다고 명시하고 있으나, 생성된 응답에서는 전화 연락이 이루어질 수 있는 상황을 설명하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 충원합격자 발표와 관련된 추가 정보를 제공합니다. 그러나 원본의 핵심 내용인 전화 연락을 하지 않는다는 점에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 점이 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있으며, 주제에 대한 설명이 잘 이어집니다. 그러나 원본과의 일관성 문제로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실과 상충하는 부분이 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이며, 일부는 잘 반영되었으나, 원본과의 일관성 및 정확성 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미와 다소 다르게 해석될 수 있는 부분이 있어 의미적으로 적절하지 않은 부분이 있습니다. 전화 연락이 이루어질 수 있는 상황을 언급함으로써 원본의 의미와 다소 어긋납니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 설명이 포함되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.6121448334616308</v>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+즉, 일반적으로 별도로 전화를 주지는 않지만, 전화 두절 등의 경우 충원합격이 되었음에도 등록하지 않는다면 등록 포기자로 간주할 수 있습니다. 따라서 해당 기간 동안 전화를 받지 못하는 일이 없도록 유의하시면 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 2024학년도 모집요강과 일정에 대한 언급은 원문에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있으며, 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있습니다. 다만, 2024학년도에 대한 언급이 원문에 없기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청된 정보와 관련된 내용을 잘 다루고 있으며, 수시모집 결과를 알고 싶어하는 질문에 대한 적절한 대답을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 각 제안이 잘 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확하지만, 2024학년도에 대한 언급이 원문에 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 수행되고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.780867690898528</v>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 데이터에서 찾을 수 없습니다. 제공된 정보는 주로 2024학년도의 모집요강과 일정에 관한 내용으로, 이전 학년도의 결과나 세부적인 통계는 포함되어 있지 않습니다.
+만약 2023학년도 경찰행정학과 수시모집 결과를 알고 싶다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 입학관리 홈페이지를 방문하여 관련 공지사항을 확인합니다.
+2. 한국교육과정평가원(KEDI) 웹사이트에서 대입 정보를 검색합니다.
+3. 동의대학교 입학처에 직접 문의하거나 전화로 연락합니다.
+이러한 방법들을 통해 가장 정확하고 최신의 정보를 얻으실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 일부 전형에서 수능 없이 지원이 가능하다고 주장하지만, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 수능 응시가 필수적이라고 명시하고 있는데, 생성된 응답은 수능 없이 지원할 수 있는 전형이 있다고 주장합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주제의 핵심인 수능 응시 여부에 대한 질문에 대한 답변으로는 적절하지 않습니다. 원문이 명확히 수능 응시가 필요하다고 말하는 반면, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명을 포함하고 있지만, 원문과의 관계가 명확하지 않아 일관된 흐름이 부족합니다. 수능 응시 여부에 대한 질문에 대한 답변으로서의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 수능 응시가 필수라는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 관계가 전혀 맞지 않기 때문에 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 수능 응시가 필요하다는 원문의 주장을 무시하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다. 원문과의 관계가 명확하지 않아 독자가 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0.5021658917319644</v>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2024년 동일한 입학전형 방식으로 볼 때, 정시 모집에서는 수능을 응시하지 않은 학생도 일부 전형에서 지원이 가능합니다. 특히 다음과 같은 전형들은 수능 없이 지원할 수 있습니다:
+1. **학생부종합전형**:
+   - **평생학습자전형**
+   - **성인학습자(정원내)전형**
+   - **성인학습자(정원외)전형**
+   - **재직자전형**
+   - **조기취업형계약학과전형**
+이러한 전형들은 주로 학생부와 면접 등을 통해 평가되며, 수능 성적 대신 학생의 학력 및 역량을 중점적으로 검토합니다.
+2. **실기/실적 위주 전형**:
+   - 일부 실기/실적 위주의 전형에서도 수능 없이 지원할 수 있습니다. 예를 들어, 태권도학과와 같은 특수전공에서는 실기 성적이 중요하게 평가됩니다.
+하지만 대부분의 일반학생전형(예: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군)은 수능 성적을 필수적으로 반영하므로 수능 응시는 필수입니다. 
+따라서 정시 모집에서 수능을 응시하지 않은 학생이 지원하고자 한다면, 위와 같은 특별한 전형들을 주의 깊게 살펴보셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 담고 있습니다. "일반적으로 정시 모집에서 지원하기는 어렵습니다"라는 주장은 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문은 지원 가능성을 명확히 하고 있지만, 생성된 응답은 지원이 어렵다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 잘못된 정보로 인해 주제와의 관련성이 떨어집니다. 원문에서 강조한 지원 가능성에 대한 정보가 누락되었습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제 전환이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 사실을 부정하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받습니다. 전반적으로 원문과의 불일치가 두드러집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 다르게 해석되고 있으며, 지원 가능성에 대한 잘못된 정보를 제공합니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.7621197392795256</v>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>10년 전에 고등학교를 졸업했다면, 일반적으로 정시 모집에서 지원하기는 어렵습니다. 대부분의 대학은 고등학교 졸업 후 3년 이내에 입학을 목표로 하고 있습니다.
+하지만 일부 특수한 경우가 있을 수 있습니다:
+1. 특정 학과나 전형에서 오랜 시간 경력을 가진 경험을 인정하는 경우가 있습니다.
+2. 평생교육이나 재직자 전형 등 특별한 지원渠道未能生成有效的答案，请尝试提供更多背景信息或直接提问所需帮助的内容。</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목 간의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0.7611261335698881</v>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+2. **원서접수**:
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 6일 (토) 18시까지
+3. **서류 제출** (필요한 경우):
+   - 시작일: 2024년 1월 3일 (수)
+   - 마감일: 2024년 1월 12일 (금) 17시까지 도착
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화)
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과: 2024년 1월 17일 (수)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2월 13일 (화)
+   - 충원 합격자 발표 및 등록: 
+     - 1차: 2024년 2월 14일 (수) 9시
+     - 2차: 2024년 2월 15일 (목) 9시
+   - 3차 이후 충원 합격자 발표 및 등록: 2024년 2월 15일 (목) 19시 ~ 2월 20일 (화) 18시까지
+7. **등록금 납부**:
+   - 지정 기간 내에 등록금을 납부하지 않으면 입학 포기로 간주됩니다.
+이 일정은 일반적으로 동의대학교 정시 모집의 주요 단계를 포함하며, 각 단계별로 중요한 정보와 마감일 등을 확인해야 합니다. 자세한 내용이나 변경사항이 있을 경우 공식 홈페이지 (http://ipsi.deu.ac.kr)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 절차에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.9345929660205954</v>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학안내 홈페이지에서 공고가 발표됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토) 마감일 18시까지
+   - 접수 사이트는 [http://ipsi.deu.ac.kr](http://ipsi.deu.ac.kr) 또는 [http://www.uwayapply.com](http://www.uwayapply.com)를 통해 가능합니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금) 마감일 17시까지 도착
+   - 서류 제출 대상은 각 전형별 세부 안내를 참조해야 합니다.
+   - 제출 방법: 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편발송 가능합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 14:00 이후에 입학안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - **최초 합격자 발표**: 2024년 2월 2일 (금) 14:00
+     - 홈페이지에서 개별 조회 가능, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+   - **최초 합격자 등록**: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화) (은행 마감 시간 내)
+     - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+   - **충원 합격자 발표 및 등록**:
+     - 1차: 2024년 2월 14일 (수) 09:00
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+     - 2차: 2024년 2월 15일 (목) 09:00 ~ 16:00
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+     - 3차 이후 (개별 전화 통보): 2024년 2월 15일 (목) 19:00 ~ 2024년 2월 20일 (화) 18시까지
+       - 홈페이지에서 개별 조회, 고지서 교부는 홈페이지에서 출력 또는 입학관리팀에서 수령 가능.
+모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부해야 합니다. 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주됩니다.
+위 일정은 일반적인 일정이며, 실제 일정이 변경될 수 있으므로 공식 홈페이지를 통해 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있는 전형에 대한 잘못된 정보를 포함하고 있습니다. 원문에서는 수능 성적이 요구되며, 수능 미응시자는 지원이 불가능하다고 명시하고 있습니다. 그러나 생성된 응답은 수능 미응시자가 지원할 수 있는 전형을 나열하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 수능 미응시자가 지원할 수 있는 전형을 제시하고 있습니다. 이는 원문에서 명시된 내용과 상반되므로 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에 대한 질문에 직접적으로 관련된 내용을 다루고 있습니다. 수능 미응시자와 관련된 전형을 설명하고 있어 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전형에 대한 설명이 잘 구성되어 있으며, 각 전형에 대한 정보가 논리적으로 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 수능 미응시자가 지원할 수 있는 전형을 나열하는 것은 사실이 아닙니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 관련성은 높지만, 사실성과 일관성이 매우 낮아 전반적인 품질이 떨어집니다. 따라서 다차원적 품질 점수는 낮게 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 상충하는 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 수능 미응시자가 지원할 수 있는 전형을 언급하는 것은 원문의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 작성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.6833038818690825</v>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집에서 수능을 미응시한 지원자가 지원할 수 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형, 성인학습자(정원내·외)전형, 재직자전형)**: 이들 전형에서는 수능 점수를 요구하지 않으며, 대신 학생부 및 기타 지원 자격 증빙서류 등을 통해 평가됩니다.
+2. **실기/실적(경기실적우수자전형)**: 일부 모집단위에서 실기나 경기 실적을 기반으로 평가되므로 수능 미응시자도 지원 가능합니다.
+3. **학생부교과(농어촌학생전형, 성인학습자(정원외)전형)**: 이들 전형에서도 수능 점수는 요구되지 않으며, 학생부 및 기타 자격 증빙서류를 통해 평가됩니다.
+이러한 전형들은 주로 수능 외의 요소들을 중점적으로 평가하므로 수능 미응시자도 지원할 수 있습니다. 그러나 각 전형별 세부 조건과 요구 사항은 다르므로, 정확한 자격 여부는 해당 전형의 공고를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전자공학과의 충원 합격이 2차까지 이루어졌다고 언급하고 있지만, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시되어 있습니다. 또한, 전년도 충원 합격 인원은 36명이라고 명시되어 있으나, 생성된 응답에서는 34명으로 잘못된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시되어 있는데, 생성된 응답은 2차까지 이루어졌다고 주장하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 전자공학과의 충원 합격에 대한 정보를 제공하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 원문에서 제공된 정보와는 다소 차이가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보의 흐름이 다소 불명확하여 일관성이 떨어질 수 있습니다. 특히, 원문과의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 충원 합격 인원에 대한 잘못된 정보가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 원문과의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 관련된 내용을 다루고 있지만, 일부 정보가 잘못되어 있어 의미적으로 완전한 적합성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 정보의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.654366990991157</v>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>2차까지 전자공학과의 충원 합격이 이루어졌습니다. 
+참조할 수 있는 정보는 다음과 같습니다:
+- 가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원 표에서 전자공학과의 모집인원은 34명입니다.
+- 지원자 유의사항 (합격자(최초 및 충원) 발표 및 등록금 납부) 항목에서 다음과 같은 내용이 있습니다:
+"충원 합격자 1차 (인터넷) 발표 / 2024. 02. 14.(수) 09:00"
+"충원 합격자 1차 (인터넷) 등록 / 2024. 02. 14.(수) 09:00~16:00"
+"충원 합격자 2차 (인터넷) 발표 / 2024. 02. 15.(목) 09:00"
+"충원 합격자 2차 (인터넷) 등록 / 2024. 02. 15.(목) 09:00~16:00"
+따라서 전년도에 전자공학과의 충원 합격은 최소 1차와 2차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 연락처 정보를 명확히 제공하지 않고 있으며, 잘못된 정보(유웨이어플라이의 연락처)를 포함하고 있습니다. 원본 텍스트의 핵심 정보를 누락하고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 동의대학교의 연락처를 명확히 제시하고 있지만, 생성된 응답은 이를 부정하고 다른 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 연락처에 대한 질문에 대한 답변으로 적절하지 않습니다. 유웨이어플라이의 연락처를 언급하는 것은 관련성이 낮으며, 원본 텍스트의 핵심 주제를 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져 논리적인 흐름이 약해집니다. 유웨이어플라이의 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 연락처 정보를 잘못 전달하고 있으며, 원본 텍스트의 사실과 크게 다릅니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보를 포함하고 있습니다. 그러나 유웨이어플라이의 정보는 관련된 주제에 대한 언급이므로 일부 적절함이 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로 이해할 수 있지만, 내용의 부적절함으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.6494922582272643</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교의 연락처 정보를 찾을 수 없습니다. 하지만 지원자 유의사항에 포함된 문구를 통해 (주)유웨이어플라이의 연락처가 주어져 있습니다:
+(주)유웨이어플라이 : 1588-8988 (http://www.uwayapply.com)
+이 번호는 인터넷 원서접수와 관련된 문의에 사용할 수 있는 번호입니다. 동의대학교 입학처의 직접적인 연락처는 제공되지 않았습니다.
+만약 더 정확한 정보가 필요하다면, 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 방문하여 확인해 보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 전화 통화가 되지 않을 경우의 절차와 결과를 상세히 설명하고 있습니다. 그러나 원본 텍스트에서 명시된 "전화 연락이 두절되어(3회 통화 시도)"라는 부분이 명확하게 언급되지 않아 약간의 차이가 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 전화 통화가 되지 않을 경우의 절차와 결과를 설명하면서 원본의 내용을 잘 따르고 있습니다. 다만, 원본의 특정 세부사항이 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 모든 주요 사항을 다루고 있으며, 질문에 대한 적절한 답변을 제공합니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있었던 점이 아쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 전화 통화가 되지 않을 경우의 구체적인 조건이 원본과 다소 차이가 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성 등 여러 차원에서 좋은 성과를 보이고 있습니다. 그러나 일부 세부사항에서 약간의 부족함이 있어 완전한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 원본의 의미를 완전히 전달하지 못한 부분이 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있어 완전한 이해 가능성에는 약간의 제한이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0.662046993738506</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자는 개별 전화 통보 방식으로 발표됩니다. 그러나 전화 통화가 되지 않을 경우, 해당 지원자는 다음과 같은 절차를 따르어야 합니다:
+1. **발표 일정 확인**: 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 시간 내에 전화 통보가 이루어집니다.
+2. **홈페이지 조회**: 이 기간 동안 합격 여부를 확인하기 위해 반드시 입학 안내 홈페이지에서 개별적으로 조회해야 합니다.
+3. **고지서 수령**: 홈페이지에서 고지서를 출력하거나, 필요하다면 입학관리팀에서 직접 수령할 수 있습니다.
+4. **등록**: 등록 기간 내에 지정된 학교 지정은행으로 등록금을 납부해야 합니다 (등록금 고지서에 기재된 시간 내).
+만약 전화 통화가 되지 않아도, 지원자가 이 과정을 준수하지 않는 경우 다음과 같은 결과가 발생할 수 있습니다:
+- **등록 포기**: 합격 여부를 확인하지 않고 등록하지 않은 경우에는 등록(입학) 포기가 간주됩니다.
+- **불이익**: 불이익이 발생할 수 있으므로, 반드시 이 과정을 준수해야 합니다.
+따라서 전화 통화가 되지 않더라도, 지원자는 홈페이지를 통해 합격 여부를 확인하고, 지정된 기간 내에 등록금을 납부하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 제출 기간, 제출 장소에 대한 정보가 모두 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 직접적으로 다루고 있으며, 필요한 서류에 대한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 직관적이며, 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.8498186575518467</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형 지원 시 각각 다음과 같은 서류를 제출해야 합니다.
+### 6년 과정 (중·고등학교에서 전 교육과정을 이수한 자로서 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자)
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자) 
+5. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)
+6. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+### 12년 과정 (부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자)
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부 
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+5. 중·고등학교 재학 시 부, 모 모두 농어촌(읍∙면)지역에서 거주한 자는 '6년과정' 서류제출 가능
+이러한 서류들은 2024년 1월 3일부터 12일까지 제출해야 하며, (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 제출해야 할 서류 목록과 그 목적에 대한 설명이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.8465116987471463</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 제출해야 하는 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이러한 서류들은 지원자의 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하였음을 증명하기 위함입니다.</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 해당 전형에 대한 불확실성을 언급하고 있습니다. 이는 원문과 상충되는 정보입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상반된 내용을 포함하고 있어 일관성이 없습니다. 원문에서는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 그에 대한 불확실성을 제기하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있으나, 기회균등 전형의 존재 여부에 대한 명확한 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어가 아닌 다른 언어로 작성되어 있어 한국어 사용자의 이해를 고려할 때 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으나, 원문과의 관계에서 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 사실과 크게 다르며, 기회균등 전형의 존재 여부에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 적절하지 않으며 원문의 맥락을 잘 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있으나, 원문과의 관계에서 혼란을 초래할 수 있어 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.4323965975977174</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确提到关于正试招生（정시모집）中的低收入机会均等类型招生计划。因此，根据现有信息无法确定是否进行此类招生。
+如果您需要了解具体的招生政策和计划，请访问学校官网或联系招生办公室以获取最准确的信息。通常学校的官方网站会有详细的招生说明和最新政策更新。您也可以直接咨询学校的招生部门以获得更具体的信息。</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 최저등급의 절사 처리에 대한 구체적인 정보를 제공하고 있으나, 원본 텍스트에서는 절사 여부에 대한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 절사 처리에 대한 구체적인 설명을 제공하고 있지만, 원본 텍스트에서 명시된 정보와는 상반된 내용을 담고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저등급과 관련된 정보를 제공하고 있으나, 원본 텍스트에서 요청한 정보와는 다소 차이가 있습니다. 그럼에도 불구하고 관련된 주제를 다루고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉽게 작성되어 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 원본 텍스트의 정보와의 연관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충되는 내용을 포함하고 있으며, 절사 처리에 대한 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계가 약합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 중간 점수를 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원본 텍스트와의 관계가 불명확하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.6305992618437763</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 등급은 절사 처리됩니다. 즉, 평균을 구한 후 소수점 셋째자리에서 절사하여 최종 등급이 결정됩니다.
+예를 들어 사탐 2과목의 평균이 2.5등급이라면, 이는 3등급으로 반영될 것입니다.
+관련된 정보:
+- [다군 수능(일반학생전형) 동점자 처리기준]에서 "등급 평균 산출 시 소수점 셋째자리에서 절사 처리합니다."라고 명시되어 있습니다.
+- [나군 학생부종합(조기취업형계약학과전형) - 정원외 서류평가 영역 및 배점]에서도 "등급 평균 산출 시 소수점 셋째 자리에서 절사 처리합니다."라고 언급되어 있습니다.
+따라서 2.5등급은 3등급으로 반영될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 충원 합격자 발표에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.8227496008651448</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>3차 이후의 충원합격자를 위한 발표가 있습니다. 구체적으로 다음과 같습니다:
+- 2024년 2월 14일(수) 09:00에 1차 충원 합격자 발표
+- 2024년 2월 15일(목) 09:00에 2차 충원 합격자 발표
+- 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지 3차 이후의 충원합격자를 위한 개별 전화 통보 발표
+따라서 총 3차까지 정시 충원 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e-비즈니스학과의 구체적인 입학 점수선에 대한 정보를 제공하지 않으며, 원본 텍스트에서 언급된 평균 점수와 관련된 내용을 잘못 해석하고 있습니다. 또한, "4.6"이라는 점수가 낮은 수준이라고 언급했지만, 원본 텍스트에서는 이 점수가 평균을 약간 초과한다고 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 특히 점수 해석에 있어 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 4.6점이 평균을 초과한다고 명시하고 있지만, 생성된 응답은 이를 낮은 수준으로 간주하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주어진 정보에 대한 직접적인 답변을 제공하지 않고 있습니다. 원본 텍스트의 핵심 내용인 충원 합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히, 점수 해석 부분에서 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 특히 점수 해석에 있어 부정확한 정보를 제공합니다. 원본 텍스트의 평균 점수와 관련된 내용을 잘못 이해하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 특정 세부 사항에서 부적절한 해석을 포함하고 있습니다. 원본 텍스트의 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장이 복잡하여 독자가 혼란스러울 수 있습니다. 원본 텍스트의 핵심 내용을 명확히 전달하지 못하고 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.4803872707025651</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接说明e商业学专业的具体录取分数线，因此无法确定一个具体的分数是否能够确保额外的正试录取资格。但是根据一般情况和给定的信息，我们可以进行一些推测：
+1. **总招生计划**：从表中的数据来看，e商业学专业在多军高考（普通学生类型）下的招生名额为7人。
+2. **成绩权重**：根据“多军高考（普通学生类型）成绩占比”表格，所有科目成绩占100%。这意味着你的总分将直接影响录取结果。
+3. **竞争情况**：虽然没有具体列出e商业学专业的往年分数线或今年的预估分数线，但可以推测，由于招生名额有限，竞争会比较激烈。
+4. **其他因素**：除了高考成绩外，还可能有其他因素影响录取，如面试、特长等（尽管这些信息在给定的数据中未明确提及）。
+因此，如果你的e商业学专业高考总分是4.6（假设这里的“4.6”是指标准分），这通常意味着你的成绩处于较低水平。在这种情况下，要确保额外的正试录取资格是比较困难的，除非你所在省份或学校有特别宽松的录取政策，或者该专业的实际招生人数少于计划数。
+建议：
+- **查询具体分数线**：最好直接咨询学校的招生办公室或访问其官方网站获取最新的录取分数线。
+- **了解其他因素**：确保自己满足所有报名条件，并准备好可能需要提交的额外材料（如面试等）。
+- **多渠道申请**：除了正试外，还可以考虑其他类型的入学途径，如提前批、自主招生等。
+如果不确定具体信息，建议访问学校官网或直接联系招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 등급과 정시 등급 5.3에 대한 합격 가능성을 언급하고 있으며, 이는 원본 텍스트의 정보와 일치합니다. 그러나 모집 인원과 전형료에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 일부 추가 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 대체로 일관성을 유지하고 있습니다. 정시 등급 5.3이 낮다는 점과 합격 가능성이 낮다는 점은 원본과 일치하지만, 추가된 정보가 원본의 맥락과 완전히 일치하지는 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 등급 5.3에 대한 합격 가능성을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 일부 문장이 복잡하여 이해하기 어려운 부분이 있을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가된 정보도 일반적으로 정확합니다. 그러나 원본에 없는 정보가 포함되어 있어 완전한 정확성은 다소 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 정보의 추가로 인해 완전한 일관성이나 정확성은 다소 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 추가된 정보가 원본의 의미를 약간 변경할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길고 복잡하여 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.6277426196189442</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 모집인원은 30명이며, 지원 인원과 경쟁률을 고려할 때 정시 등급 5.3으로 최초 합격 가능성은 낮습니다.
+e비즈니스학과는 전형료가 10,000원이고, 모집인원이 제한적입니다. 이 과정에서 지원자의 수능 점수와 등급이 중요한 요소로 작용합니다. 정시 등급 5.3은 상당히 낮은 등급이며, 이는 대체로 학생부교과 전형이나 실기/실적 전형에 더 유리할 것입니다.
+다만, 최초합격 가능성 여부는 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 지원자의 수능 점수와 등급: 정시 등급 5.3은 낮은 등급이므로 경쟁률이 높을 가능성이 큽니다.
+2. 학생부 교과성적 및 기타 전형 요소: e비즈니스학과는 종종 학생부 교과성적이 중요한 역할을 하기 때문에, 지원자의 학생부 성적 등 다른 평가 항목이 중요합니다.
+따라서 정시 등급 5.3으로 e비즈니스학과에 최초합격하기는 어렵지만, 전형 요소들이 다양하게 고려되는 경우에도 최종 합격 가능성은 존재할 수 있습니다. 그러나 이는 매우 낮을 것으로 예상됩니다.
+추가적으로, 정시 등급 5.3으로 e비즈니스학과에 지원하는 경우에는 다른 전형(예: 학생부 종합전형)에서도 지원해 보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 명확한 답변을 제공하지 않고 있습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 추가 정보를 요청하는 내용으로 대체되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 예비 38번의 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 그와 반대되는 방향으로 정보를 요청하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 관련된 정보를 제공하지 않고, 새로운 질문을 제기하는 형태로 전개되고 있습니다. 원본 텍스트의 핵심 주제인 예비 합격 가능성에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 흐름이 원본 텍스트와 연결되지 않아 읽는 이에게 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 논리적인 흐름이 부족하며, 원본 텍스트와의 연결이 약해 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 38번의 합격 가능성에 대한 잘못된 해석을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문을 통해 새로운 정보를 요청하는 형태로 원본의 의도를 벗어나 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있으나, 원본 텍스트와의 관련성이 부족하여 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.551860676771705</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要了解一些具体信息。根据您提供的信息，“e비즈니스학전공 예비 38번”（即电子商务学专业预录取编号38），但没有提供具体的考试成绩或评价等级等详细信息。
+根据之前的表格内容，我们可以了解到：
+1. **加群一般学生型**：
+   - 国语、数学、英语、社会（历史/道德包含）、科学、韩国史教科书科目总排名等级平均值。
+2. **加群实技/实绩（一般学生型）**：
+   - 实际技能考试成绩占30%，实际业绩70%。
+3. **加群实技/实绩（经比赛优秀者型）**：
+   - 学生教科书（包括出勤记录）30% + 文件（实际业绩）70%。
+4. **加群实技/实绩（竞赛成绩优异者型）**：
+   - 学生教科书18% + 出勤记录12% + 文件（实际业绩）70%。
+5. **加群学生综合（平生学习者型）**：
+   - 申请文件（学生成绩单）70% + 面试30%。
+6. **加群学生综合（在职成人型）**：
+   - 申请文件（学生成绩单）60% + 面试40%。
+请您提供以下信息，以便我能更准确地评估您的情况：
+1. 您的具体考试成绩或等级。
+2. 是否参加了实际技能考试及成绩。
+3. 申请文件中的详细内容和评分情况。
+有了这些具体信息后，我可以帮助您判断预录取编号38是否有可能达到正式录取。</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 3.44의 GPA가 낮은 합격 가능성을 나타낸다고 언급하고 있습니다. 그러나, 응답에서 제시된 입학 성적의 범위는 원본 텍스트에 명시된 정보와 다소 차이가 있습니다. 따라서, 전반적으로 정확하지만 일부 세부 사항에서 차이가 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 제시된 입학 성적의 범위가 원본 텍스트와 일치하지 않아 일관성이 떨어집니다. 원본 텍스트의 평균 성적과 비교할 때, 생성된 응답의 정보는 다소 상충하는 부분이 있어 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하며, 간호학과의 합격 가능성에 대한 분석을 포함하고 있습니다. 따라서, 매우 관련성이 높아 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 일부 문장에서 더 명확한 연결이 필요할 수 있어 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있으며, 전반적으로 정확한 내용을 담고 있습니다. 그러나 일부 세부 사항에서 차이가 있어 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성과 정확성에서의 차이로 인해 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 더 명확한 의미 전달이 필요할 수 있어 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0.5837461851718647</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>3.44이라는 GPA는 동의대학교 간호학과의 경쟁률과 입학 기준 점수를 고려할 때, 합격 가능성이 매우 낮다고 볼 수 있습니다.
+동의대학교 간호학과의 최근 입학 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균: 3.88 ~ 4.65
+- 영어 등급 평균: 0.31 ~ 1.99
+당신의 GPA가 3.44이므로, 이는 평균 이상의 성적이지만, 동의대학교 간호학과의 입학 기준 점수와 비교하면 상대적으로 낮은 수치입니다.
+따라서, 합격 가능성은 매우 낮다고 판단할 수 있습니다. 그러나 최종 결정을 내리기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 최근 몇 년간의 입학 성적과 경쟁률을 확인합니다.
+2. 개인의 특성화 과목 성적이 높다면, 합격 가능성은 약간 향상될 수 있습니다.
+3. 면접이나 서류 심사에서 우수한 평가를 받는다면, 합격 가능성도 증가할 수 있습니다.
+결론적으로, 현재의 GPA로는 동의대학교 간호학과에 합격하기 어렵다고 판단됩니다. 다른 대학이나 전형을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 잘못 제시하고 있습니다. 원문에서는 평균 영어 등급이 2.34이고 수능 4개 영역 등급 평균이 3.37이라고 했으나, 생성된 응답에서는 영어 등급이 1.86, 수능 4개 영역 등급 평균이 3.12로 잘못 기재되어 있습니다. 이러한 오류로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 2.52라는 성적이 평균 등급보다 높다고 언급했으나, 생성된 응답에서는 합격하기 어렵다고 주장하고 있습니다. 이로 인해 정보의 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원문에서 제시된 평균 등급과 관련된 정보가 잘못되어 있어 일부 관련성이 떨어집니다. 그러나 전반적으로 질문에 대한 답변을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 논리적인 흐름이 있으나, 원문과의 불일치로 인해 일관된 주제를 유지하는 데 어려움이 있습니다. 특히, 평균 등급에 대한 잘못된 정보가 흐름을 방해합니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 크게 다릅니다. 평균 등급에 대한 정보가 잘못되어 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성과 일관성에서 큰 문제가 발생하여 전반적인 품질이 낮습니다. 관련성은 어느 정도 있지만, 정확성과 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있으나, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적으로 적절하다고 보기 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 그러나 문장 자체는 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.6176704262356387</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>2.52라는 성적을 가지고 동의대학교 간호학과에 최종적으로 합격하기는 어렵다고 보입니다.
+간호학과의 경우, 최종 등록자 표에서 볼 수 있듯이 평균 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합은 489.72로 매우 높습니다. 또한, 영어 등급의 평균도 1.86으로 낮은 편이며, 수능 4개 영역 등급의 평균도 3.12입니다.
+이러한 데이터를 바탕으로 볼 때, 2.52라는 성적은 간호학과의 입학 기준을 크게 미치지 못하는 것으로 보입니다. 그러나 최종 합격 여부는 여러 요인에 따라 결정되므로, 정확한 판단을 위해서는 다음과 같은 점들을 고려해야 합니다:
+1. **개별 지원자의 성적 분포**: 일부 지원자들은 평균보다 낮은 성적을 가지고도 합격할 수 있습니다.
+2. **모집정원과 지원 인원의 비율**: 모집 정원이 적고 지원자가 많으면 경쟁률이 높아지므로, 2.52라는 성적이 더 유리해질 수 있습니다.
+3. **추가 평가 요소**: 일부 학과에서는 서류심사나 면접 등 추가 평가를 통해 합격자를 선발할 수도 있습니다.
+따라서, 정확한 답변을 위해서는 동의대학교 간호학과의 최종 합격자 명단이나 추가적인 지원 자격 요건 등을 확인해 보시는 것이 좋습니다. 또한, 대학 입학 홈페이지나 관계부서에 문의하시면 더 구체적인 정보를 얻으실 수 있습니다.
+추가로, 다른 학과들도 고려해보시는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, 정시 성적이 3.7일 경우 합격 가능성이 낮다는 점을 잘 반영하고 있습니다. 그러나 "중간적인 점수"라는 표현은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 간호학과의 전형 요소와 관련된 추가 정보를 제공합니다. 다만, "합격 가능성은 낮습니다"라는 결론이 원본 텍스트의 내용과 일치하지만, 추가적인 조치에 대한 설명이 다소 길어져 일관성이 약간 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 잘 다루고 있으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 부분에서 문장이 길어져서 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 간호학과의 평균 등급과 관련된 정보도 정확합니다. 그러나 "중간적인 점수"라는 표현이 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 표현에서 모호함이 있어 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 "중간적인 점수"라는 표현이 다소 애매하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.6322227040417276</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 중간적인 점수로, 간호학과의 모집요강을 살펴보아야 합니다. 간호학과는 보통 높은 수능 점수가 요구되므로, 정시 성적이 3.7이라면 합격 가능성은 낮습니다.
+간호학과의 전형 요소를 고려하면 다음과 같은 점들을 주의해야 합니다:
+1. **수능성적**: 간호학과는 보통 높은 수능 점수가 요구되며, 특히 수학과 영어가 중요합니다.
+2. **학생부 성적**: 학생부 교과 성적이 중요한 요소로, 8과목 중 상위 4과목의 성적을 반영받습니다.
+3. **진로선택과목**: 간호 관련 진로 선택 과목의 성적도 중요합니다.
+따라서 정시 성적이 3.7이라면 다음과 같은 조치를 취해볼 수 있습니다:
+1. **수능 점수 향상**: 수능을 다시 준비하여 높은 점수를 얻는 것이 가장 효과적인 방법입니다.
+2. **학생부 보완**: 학생부에서 간호 관련 활동이나 경험을 강조하고, 진로 선택 과목의 성적을 향상시킵니다.
+3. **추천서 및 자기소개서 작성**: 추천서와 자기소개서를 잘 준비하여 간호사로서의 적합성을 강조합니다.
+결론적으로 정시 성적이 3.7이라면 간호학과에 합격하기는 어렵지만, 수능 점수 향상 및 기타 요인들을 최대한 활용한다면 가능성이 있습니다. 자세한 정보는 동의대학교 입학처 웹사이트나 전화로 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 2.58이라는 점수가 낮다고 언급하며 합격 가능성이 낮다고 결론짓고 있습니다. 이는 원본 텍스트의 "합격 가능성이 높습니다"라는 주장과 상충합니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 결론을 내리고 있습니다. 원본 텍스트는 2.58의 점수가 평균보다 높다고 하여 합격 가능성이 높다고 했으나, 생성된 응답은 이 점수가 낮다고 판단하고 있습니다. 이로 인해 일관성 점수는 2로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 입학 전형에 대한 정보를 제공하며, 질문에 대한 관련성을 유지하고 있습니다. 그러나 원본 텍스트의 핵심 포인트인 합격 가능성에 대한 직접적인 답변이 부족하여 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 따라서 유창성 점수는 5로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지 못하므로 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2.58이라는 점수에 대한 해석이 원본 텍스트와 다릅니다. 따라서 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 보이지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 점수는 3으로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있는 요소가 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.5959528044918607</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집요강을 보면, 간호학과는 일반학생전형으로 모집되며, 해당 전형에서는 주로 수능 점수와 학생부 성적 등을 종합적으로 평가합니다. 그러나 정확한 합격 가능성을 판단하기 위해서는 다음과 같은 정보들이 필요합니다:
+1. **모집인원과 지원 인원**: 간호학과의 모집인원과 실제 지원 인원을 확인해야 합니다.
+2. **경쟁률**: 이전 연도의 경쟁률을 참조하면 됩니다. 예를 들어, 2023년의 경우 경쟁률이 어느 정도였는지 확인할 수 있습니다.
+3. **수능 점수와 학생부 성적**: 간호학과의 전형요소 반영비율을 보면, 수능 점수가 중요한 요인 중 하나입니다. 예를 들어, 수능 점수는 40% 이상의 비중을 차지할 수 있습니다.
+4. **학생부 성적**: 학생부 교과성적이 중요합니다. 간호학과에서는 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 8과목을 반영하며, 이 중 최대 2과목이 진로선택과목으로 선택될 수 있습니다.
+5. **기타 요인**: 면접 결과나 특별한 활동 등도 고려될 수 있습니다.
+현재 정보만으로는 정확한 판단이 어렵습니다. 하지만 2.58이라는 점수는 상대적으로 낮은 수준입니다. 이 점수로 간호학과에 합격하기 위해서는 다음과 같은 조건을 충족시켜야 합니다:
+- **고교 졸업(예정)자**의 경우, 1학년 1학기부터 3학년 2학기까지의 성적 중 석차등급 상위 8과목을 반영받습니다.
+- **학생부 교과성적**: 국어, 수학, 영어, 사회(역사/도덕 포함), 과학교과 등에서 좋은 성적을 보여야 합니다.
+따라서, 2.58의 점수로는 합격 가능성이 낮다고 볼 수 있습니다. 하지만 최종 결정은 동의대학교 입학관리팀에서 이루어지므로, 정확한 정보를 얻기 위해서는 동의대학교 입학홈페이지나 전화 문의 등을 통해 확인하는 것이 좋습니다.
+추가적으로, 동의대학교에서는 학생부 종합전형도 운영하고 있으므로, 해당 전형으로 지원해보는 것도 고려해볼 만합니다.</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비번호 7번에 대한 가능성을 언급하고 있지만, 원본 텍스트에서는 예비번호 7번의 합격 가능성이 낮다고 명시하고 있습니다. 따라서, 사실성 점수는 3으로 평가됩니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 예비번호 7번이 추가 합격할 가능성이 있다고 주장하지만, 원본 텍스트는 그 가능성이 낮다고 명확히 언급하고 있습니다. 이로 인해 일관성 점수는 2로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 예비번호 7번에 대한 정보를 제공하고 있습니다. 따라서 관련성 점수는 5로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있어 점수는 4로 평가됩니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 따라서 일관성 점수는 4로 평가됩니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 제공하지만, 예비번호 7번의 합격 가능성에 대한 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다. 따라서 정확성 점수는 3으로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점과 약점을 가지고 있습니다. 사실성과 일관성에서 낮은 점수를 받았기 때문에 다차원 품질 점수는 3으로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과 다소 어긋나는 부분이 있어 점수는 3으로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 내용이 혼란스러울 수 있어 점수는 4로 평가됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.6526711419169621</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>ict융합공과대학 게임공학과의 경우 모집인원이 40명이며, 예비번호 7번까지는 추가로 합격자를 선발할 가능성이 있습니다. 하지만 확실한 것은 아닙니다. 최종적으로 결원 발생 여부와 예비후보 순위에 따라 결정됩니다.
+추가적인 정보:
+- 게임공학과의 모집인원은 40명입니다.
+- 예비번호까지 포함하면 추가 합격자가 선발될 수 있습니다.
+결론적으로, 현재로서는 예비번호 7번으로 지원하신다면 추가로 합격할 가능성이 있지만, 확정된 것은 아닙니다. 최종 결과는 입학전형일정에 따른 발표를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 성적 4.16에 대한 해석과 추가 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 사실을 잘 반영하고 있습니다. 그러나 "4.16이라는 점수는 상대적으로 낮은 편"이라는 주장은 원본 텍스트에서 명시된 평균 등급과의 비교 없이 단정적으로 표현되어 있어 다소 주관적입니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 수능 성적의 중요성과 추가 합격 가능성에 대한 설명이 잘 연결되어 있습니다. 다만, "4.16이라는 점수는 상대적으로 낮은 편"이라는 표현은 원본 텍스트의 평균 등급과의 비교 없이 사용되어 약간의 일관성 문제를 나타냅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 질문에 직접적으로 관련된 정보를 제공하고 있으며, 추가 합격 가능성에 대한 다양한 요소를 고려하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 다소 복잡한 표현이 사용되어 약간의 유창성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 문장은 더 간결하게 표현될 수 있어 약간의 일관성 문제를 나타냅니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가 합격 가능성에 대한 예측도 적절하게 이루어졌습니다. 그러나 "상대적으로 낮은 편"이라는 주장은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 일부 주관적인 표현이 있어 약간의 감점이 있었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 이해하기 어려운 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.6446404999355262</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 현재 한국어, 수학, 영어 등급만 반영한 표준점수로 보이는데, 이 점수를 가지고 정확하게 추가 합격 가능 여부를 예측하기는 어렵습니다. 게임공학과의 경우 일반적으로 수능 성적이 중요하지만, 서류평가와 면접 평가도 큰 역할을 합니다.
+다음은 고려해야 할 몇 가지 요소입니다:
+1. **수능 성적**: 동의대학교 게임공학과는 수능 성적이 중요한 요인으로 작용합니다. 4.16이라는 점수는 상대적으로 낮은 편이므로, 추가 합격을 받기 위해서는 다른 평가 항목에서 높은 점수를 받아야 합니다.
+2. **서류평가**: 서류평가 영역에서는 학업역량과 전공적합성 등이 중요합니다. 지원자의 학교생활기록부, 창의적 체험활동, 진로 탐색 활동 등의 내용이 잘 반영되어야 합니다.
+3. **면접평가**: 면접에서도 게임 관련 지식이나 흥미, 열정 등을 잘 보여줘야 합니다.
+4. **경쟁률**: 동의대학교 게임공학과의 경쟁률을 고려해야 합니다. 현재 지원자들의 수능 성적 분포와 서류평가 점수를 바탕으로 예측할 수 있습니다.
+5. **추가 합격 가능성**: 추가 합격 가능 횟수는 모집인원, 지원자의 수능 성적, 서류평가 및 면접 평가 결과 등에 따라 달라질 수 있습니다. 4.16이라는 점수로는 최소 2~3번 정도의 추가 합격 가능성은 있을 것으로 예상되지만, 확실한 것은 아닙니다.
+따라서 정확한 추가 합격 가능 횟수를 예측하기 위해서는:
+- **현재 지원자의 수능 성적 분포와 경쟁률을 확인**합니다.
+- **서류평가 영역에서 높은 점수를 받을 수 있는 준비**를 합니다.
+- **면접에서도 좋은 평가를 받을 수 있도록 준비**를 합니다.
+추가로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하여 최신 정보와 더 구체적인 조언을 얻는 것이 좋습니다. https://ipsi.deu.ac.kr/main.do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 학생부 교과성적 반영방법에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 평균 등급(영어 2.88, 수능 3.88)과 관련된 내용이 부족합니다. 따라서 일부 사실이 누락되어 있어 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 반영 방법에 대한 정보를 제공하지만, 원본 텍스트의 내용과는 다소 다른 방향으로 전개됩니다. 원본 텍스트의 합격 가능성에 대한 언급이 부족하여 일관성이 떨어진다고 판단하여 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과에 지원하기 위한 성적 반영 방법에 대한 정보를 제공하여 관련성이 높습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족하여 점수를 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 부족하여 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 성적 반영 방법에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급과 관련된 정보가 누락되어 있어 정확성이 떨어진다고 판단하여 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트와의 연결성 및 정확성이 부족하여 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 성적 반영 방법에 대한 정보를 적절하게 전달하고 있으나, 원본 텍스트의 맥락과 완전히 일치하지 않기 때문에 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 문장이 길어질 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.6167597398351097</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 정시모집에서 학생부교과성적 반영방법이 다음과 같습니다:
+- **반영과목**: 전 모집단위(한의예과 제외) 12과목 (국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목)
+- **한의예과**: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+이 정보만으로는 경영정보학과에 지원하기 위해서는 학생부 교과성적이 중요합니다. 하지만 정시모집에서 국어, 수학, 영어 등 주요 과목의 성적을 반영하는 것이 일반적입니다.
+**3.75 평균 점수**는 중간 정도의 성적으로 보이며, 경영정보학과에서는 학생부 교과성적이 중요한 요소이므로 3.75의 평균 점수만으로 최초등록을 확신하기는 어렵습니다.
+다음은 고려해야 할 몇 가지 사항입니다:
+1. **전반적인 성적 평균**: 3.75는 중간 정도의 성적이므로, 전반적으로 좋은 성적을 유지하고 있는지 확인해야 합니다.
+2. **교과성적 상위 8과목**: 경영정보학과에서는 주요 과목들의 석차등급이 중요하므로, 국어, 수학, 영어 등 주요 과목의 성적이 높은지 확인해야 합니다.
+3. **학생부 교과성적 반영방법**: 12과목 중 상위 8과목을 선택하여 평균 점수를 계산하면, 이 중에서 3.75 이상이 포함되어야 합니다.
+따라서, 3.75의 평균 점수만으로는 최초등록에 확신할 수 없습니다. 전반적인 성적과 학생부 교과성적을 종합적으로 고려하여 결정해야 합니다. 만약 가능성을 확인하고 싶다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.
+추가 정보:
+- [동의대학교 입학처 웹사이트](https://ipsi.deu.ac.kr/main.do)
+- 전화: 1588-8988 (주)유웨이어플라이
+위 정보를 참고하여 최종 결정을 내리시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지만, 원본 텍스트에서 제시된 수치(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)와는 다소 차이가 있습니다. 또한, 최초등록자 자격에 대한 추가적인 요소를 언급하고 있지만, 원본 텍스트의 핵심 내용을 완전히 반영하지는 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가적인 정보와 조건을 제시함으로써 원본의 주장을 약간 변형시킵니다. 따라서 일관성은 있지만, 원본의 주된 메시지와는 다소 다르게 해석될 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 최초등록자 가능성에 대한 질문에 대한 답변을 시도하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교할 때, 다소 일반적인 정보로 대체되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 메시지와는 약간의 차이가 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 수치와 다소 차이가 있으며, 최초등록자 자격에 대한 정보가 추가되었지만, 원본의 정확한 사실을 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 핵심 사실을 완전히 반영하지 못하고 있어 전반적인 품질이 다소 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 원본의 구체적인 수치와는 다소 차이가 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있으며, 정보가 잘 전달되고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.7611066586214779</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 정시 모집에서 국어, 수학, 영어 등 3개 영역의 평균 점수가 4.2라는 정보만으로는 최초등록자로 가능할지 판단하기 어렵습니다. 최초등록자의 자격은 여러 요소에 따라 결정되며, 주요 요인들은 다음과 같습니다:
+1. **모집 인원과 지원 인원**: 모집 인원이 얼마나 되고 지원 인원이 몇 명인지 확인해야 합니다.
+2. **경쟁률**: 경영정보학과의 경쟁률을 알아야 합니다. 경쟁률이 높다면, 4.2라는 점수로는 최초등록자로 선발될 가능성은 낮습니다.
+3. **성적 등급**: 수능 성적이 4.2라면, 이는 대체적으로 좋은 성적입니다. 하지만 다른 모집단위의 성적과 비교해야 합니다.
+4. **모집인원 및 지원 인원**: 각 모집단위별로 모집인원이 얼마나 되고 지원 인원이 몇 명인지 확인해야 합니다. 예를 들어, 모집인원이 10명이고 지원 인원이 20명이라면 경쟁률은 높아지게 됩니다.
+5. **최종등록자와 최초등록자의 성적 분포**: 이전 년도의 최종등록자와 최초등록자의 성적을 비교하여, 현재 점수가 어느 수준인지 판단해야 합니다.
+따라서, 정확한 답변을 위해서는 다음과 같은 정보가 필요합니다:
+- 2024년 경영정보학과의 모집인원
+- 2024년 경영정보학과의 지원 인원
+- 이전 년도의 최종등록자와 최초등록자의 성적 분포
+위 정보를 바탕으로 경쟁률을 계산하고, 현재 점수가 어느 수준인지 판단할 수 있습니다. 만약 이러한 정보가 제공되지 않는다면, 해당 정보를 확인하거나 동의대학교 입학처에 문의하는 것이 좋습니다.
+추가적으로, 동의대학교의 입학 홈페이지 (http://ipsi.deu.ac.kr)에서 최신 정보와 자세한 안내를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수와 관련된 정보가 제공되지 않았다고 언급하지만, 원본 텍스트에서는 경영정보학과의 평균 등급과 관련된 구체적인 수치가 제공되고 있습니다. 또한, 5.33 등급이 "상당히 좋은 점수"라고 평가하는 부분은 원본 텍스트의 내용과 상충합니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 5.33 등급이 평균보다 낮다고 언급한 원본의 주장을 반박하는 내용이 포함되어 있습니다. 이는 일관성이 부족한 부분입니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원본 텍스트의 핵심 내용인 평균 등급과의 비교가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일부 상충하는 내용을 포함하고 있어 정확성이 떨어집니다. 특히, 5.33 등급에 대한 평가가 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문에 대한 답변으로서의 역할을 잘 수행하고 있습니다. 그러나 원본 텍스트의 맥락과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6254442689375047</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과 일반학생전형에 대한 최종합격자 표를 보면, 수능 점수와 관련된 정보가 제공되지 않았습니다. 하지만 일반적으로 동의대학교의 경영정보학과는 경쟁률이 높은 학과 중 하나입니다.
+수능 4개 영역 (국어 + 수학 + 외국어 + 과학) 등급 평균을 기준으로 판단할 때, 5.33 등급은 상당히 좋은 점수입니다. 그러나 최종합격 여부는 단순한 수능 점수뿐만 아니라 지원자의 전반적인 성적, 학업역량, 그리고 모집단위별 정원 내외 등의 요인에 따라 결정됩니다.
+따라서 5.33 등급의 지원자가 경영정보학과 일반학생전형에서 합격할 수 있는지는 다음과 같은 점들을 고려해야 합니다:
+1. **모집정원**: 모집정원이 얼마나 되는지 확인해야 합니다.
+2. **지원자들의 평균 성적**: 다른 지원자의 평균 등급을 파악하여 비교해야 합니다.
+3. **경쟁률**: 경쟁률이 어느 정도인지 알아보아야 합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 입학처 웹사이트나 전형요강을 참조하거나, 직접 입학처에 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 바이오응용공학부의 입학 기준에 대한 잘못된 정보를 포함하고 있으며, 원본 텍스트의 내용과 일치하지 않습니다. 원본 텍스트는 특정 평균 점수에 대한 정보를 제공하지만, 생성된 응답은 다른 기준을 제시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 3.33의 점수로 합격 가능성이 높다고 언급하지만, 생성된 응답은 다른 기준을 제시하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 주제에 대한 직접적인 답변을 제공하지 않고 다른 정보를 제시하여 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 한국어가 아닌 중국어로 작성되어 있어 한국어 사용자에게는 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 낮아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 관련성이 낮아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.4271218468924981</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我们需要考虑以下几个因素：
+1. **巴生物应用学部（Bio-applied Engineering Department）的录取标准**：根据提供的信息，巴生物应用学部在多科目能力测试中的录取标准是国语、数学和英语各占25%，探究领域（社会或科学两个科目合计）占25%。加权总分越高，被录取的可能性越大。
+2. **您的成绩情况**：您提到的3.33是指您的综合平均分吗？如果是的话，请提供具体的分数分布，以便更准确地评估。
+假设您的具体分数如下（以满分100分为例）：
+- 国语 (Language and Media): 85
+- 数学 (Mathematics): 75
+- 英语 (English): 65
+- 探究领域 (Exploration Field, 社会或科学两个科目合计): 70
+根据巴生物应用学部的录取标准，计算总分如下：
+\[ \text{总分} = 85 \times 25\% + 75 \times 25\% + 65 \times 25\% + 70 \times 25\% \]
+\[ \text{总分} = (85 + 75 + 65 + 70) \times 25\% \]
+\[ \text{总分} = 295 \times 25\% \]
+\[ \text{总分} = 73.75 \]
+根据上述计算，您的综合成绩为73.75。如果巴生物应用学部的录取分数线高于这个分数，则您有可能被录取。
+**建议：**
+1. 查看巴生物应用学部的具体录取分数线。
+2. 如果分数线较高，请考虑其他可能符合您条件的专业或学校。
+3. 保持关注学校的最新通知和公告，以获取最新的招生信息。
+如果您能提供更具体的分数分布或其他相关信息，我可以为您提供更加准确的评估。</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보를 제공하지만, "일반적으로 4.5 이상의 등급이 필요하다"는 주장은 출처 텍스트에 명시된 평균 등급(3.82)보다 높아 사실과 다릅니다. 또한, "일부 학생들은 4.6 이상의 고등학교 졸업성적을 보여주고 있다"는 정보는 출처에 포함되어 있지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 경쟁이 치열하다는 점에서 출처와 일치하지만, 평균 등급에 대한 정보가 다르기 때문에 일관성이 부족합니다. 출처에서 제시된 평균 등급과 생성된 응답의 주장이 상충합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 방사선학과에 지원하려는 질문에 대해 매우 관련성이 높습니다. 방사선학과의 입학 요건과 관련된 정보가 잘 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 평균 등급에 대한 정보가 일관되지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 등급에 대한 정보가 부정확하여 정확성이 떨어집니다. 출처에서 제공된 정보와의 불일치가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 관련성이 높고, 유창하며, 일관성이 있지만, 사실성과 정확성에서 다소 부족함이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 일부 정보가 부정확하여 완전한 적합성은 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6309882824255544</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과에 지원하려면, 정시 등급 4.4 정도로는 경쟁이 매우 치열할 것으로 예상됩니다. 방사선학과는 일반적으로 높은 학업성적을 요구하는 전공 중 하나입니다.
+방사선학과의 모집요강과 과거 입학 성적을 확인해보시면, 정확한 정보를 얻을 수 있습니다. 하지만 대체로 방사선학과는 4.5 이상의 등급이 필요하며, 일부 학생들은 4.6 이상의 고등학교 졸업성적을 보여주고 있습니다.
+당장은 다음과 같은 점들을 확인해보시는 것이 좋습니다:
+1. **방사선학과의 모집요강**: 동의대학교 홈페이지에서 방사선학과의 정확한 모집요강을 확인하세요.
+2. **입학성적 분석**: 과거 입학생들의 성적을 분석해보세요. 이 정보는 대학 홈페이지나 입학처에서 제공할 수 있습니다.
+3. **전형별 평균 등급**: 각 전형별로 평균 등급이 어느 정도인지 확인하세요.
+현재의 성적이 방사선학과에 충분하지 않다고 판단된다면, 다른 전공을 고려해보는 것도 좋은 방법입니다. 동의대학교에는 다양한 학과가 있으므로, 자신의 관심 분야와 적합한 학과를 찾아보시기 바랍니다.
+만약 추가 정보나 도움이 필요하시다면, 동의대학교 입학처에 문의하거나 전문적인 상담을 받는 것도 좋은 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과의 평균 GPA가 2.8이라는 사실을 무시하고, 2.66이라는 점수가 상대적으로 낮다고 주장하고 있습니다. 이는 원본 텍스트의 정보와 상충합니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과의 평균 GPA와 관련된 정보를 잘못 해석하고 있으며, 원본 텍스트와의 일관성이 부족합니다. 원본 텍스트는 2.66이 평균보다 높다고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 4  
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 GPA에 대한 논의를 포함하고 있어 관련성이 높지만, 원본 텍스트의 핵심 내용을 잘못 해석하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 가지 요소를 고려하고 있지만, 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어집니다. 특히 GPA에 대한 해석이 모순되어 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 방사선학과의 평균 GPA와 관련된 사실을 잘못 전달하고 있으며, 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 불일치로 인해 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 생성된 응답은 방사선학과에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.5606740356503963</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>2.66이라는 GPA는 방사선학과의 경우 상대적으로 낮은 점수입니다. 방사선학과는 보통 과학적 지식과 실무 능력이 중요하기 때문에, 평균 이상의 성적이 요구됩니다.
+방사선학과의 경우 다음과 같은 점들을 고려해야 합니다:
+1. **평균 GPA**: 대부분의 대학에서 방사선학과의 경우 3.0 이상의 GPA가 필요합니다.
+2. **수능 과목**: 생물, 물리 등 과학 관련 과목의 성적이 중요합니다.
+3. **면접 및 실기 평가**: 일부 학교에서는 면접이나 실기 시험을 통해 실무 능력을 평가하기도 합니다.
+2.66 GPA는 다음과 같은 위험성을 가질 수 있습니다:
+1. **합격 가능성 낮음**: 대부분의 대학에서 3.0 이상이 요구되므로, 이 점수로 합격할 확률은 낮을 수 있습니다.
+2. **대체 경쟁자들**: 다른 지원자들이 더 높은 GPA를 가지고 있을 가능성이 큽니다.
+하지만 모든 것이 절대적이지 않으며, 다음과 같은 방법으로 기회를 늘릴 수 있습니다:
+1. **추천서 및 자기소개서**: 강력한 추천서와 잘 작성된 자기소개서로 자신의 장점을 강조할 수 있습니다.
+2. **면접 준비**: 면접에서 자신감 있게 자신의 열정과 적합성을 표현할 수 있도록 준비해야 합니다.
+결론적으로, 2.66 GPA는 방사선학과의 경우 위험한 점수일 수 있지만, 다른 요소들을 잘 활용한다면 합격 가능성은 여전히 있습니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경찰행정학과의 평균 성적과 경쟁률에 대한 정보를 잘못 해석하고 있습니다. 원문에서는 3.66이 평균보다 높은 성적이라고 언급했으나, 생성된 응답에서는 낮은 합격 가능성을 주장하고 있습니다. 이는 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일관되지 않습니다. 원문은 3.66이 평균보다 높은 성적이라고 하였으나, 생성된 응답은 이를 반박하며 합격 가능성이 낮다고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 다룬 주제와 관련이 있지만, 원문에서 제공된 긍정적인 요소를 간과하고 있습니다. 그러나 합격 가능성에 대한 논의는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 각 요소가 잘 연결되어 있지만, 결론이 원문과 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실을 잘못 해석하고 있습니다. 3.66의 성적이 평균보다 높은 점수라는 사실을 무시하고, 낮은 합격 가능성을 주장하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 불일치가 두드러지며, 사실성, 일관성, 정확성에서 낮은 점수를 받고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과 상충하는 부분이 있어 적절성이 떨어집니다. 원문의 긍정적인 요소를 간과하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.6022522328571462</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>3.66의 성적을 가지고 경찰행정학전공 농어촌 전형에 지원하셨다면, 합격 가능성은 낮다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. 경찰행정학과는 보통 높은 점수를 요구합니다.
+2. 농어촌학생전형의 경우에도 일반적으로 좋은 성적을 필요로 합니다.
+3. 3.66이라는 성적은 대부분의 대학에서 중간적인 성적 수준으로 평가됩니다.
+하지만, 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 해당 대학과 전공의 최저 합격 점수를 확인하세요.
+2. 지원자의 전체 경쟁률을 파악해보세요.
+3. 농어촌학생전형 특성화 과정에서 성적 외 요소들도 중요하게 평가되는 경우가 많으므로, 자기소개서와 서류평가 등 다른 부분도 잘 준비하셨는지 확인하세요.
+결론적으로 3.66의 성적만으로는 낮은 확률로 합격할 수 있을 것 같습니다. 하지만 최선을 다해 지원하시고, 서류 및 면접에서도 좋은 평가를 받으시면 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성이 낮다고 언급하고 있지만, 원문에서는 특정 학과에 따라 합격 가능성이 달라질 수 있다고 명시하고 있습니다. 따라서, 원문과의 일치성이 부족하여 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성이 낮다고 주장하는 반면, 원문에서는 특정 학과에 따라 합격 가능성이 있다고 언급하고 있습니다. 이로 인해 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자에 대한 정보와 조언을 제공하고 있지만, 원문에서 제시한 특정 학과에 대한 정보는 포함되어 있지 않아 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 예비 25번의 합격 가능성을 낮게 평가하고 있지만, 원문에서는 특정 학과에 따라 합격 가능성이 있다고 명시하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받지만, 사실성과 일관성에서 큰 결함이 있어 전반적인 품질 점수가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 원문과의 맥락에서 벗어난 부분이 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 원문과의 연결이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.5631818283126038</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>25위 예비 합격자인 경우, 최종합격의 가능성이 매우 낮다고 볼 수 있습니다. 정시 모집에서 일반적으로 많은 지원자가 경쟁하기 때문에, 예비 합격자는 대부분 최종 합격하지 못합니다.
+다만, 다음과 같은 요소들이 있을 때는 희망을 버리지 않는 것이 좋습니다:
+1. **모집인원 감축**: 3차 충원까지 합격자 발표가 이루어질 수 있으므로, 모집인원이 감소할 경우 기회가 생길 수 있습니다.
+2. **개별 전화 통보**: 3차 이후에 개별 전화로 합격통보를 받을 수도 있습니다.
+3. **성적 및 경쟁률**: 지원자의 성적이 높고, 해당 모집단위의 경쟁률이 낮다면 희망을 유지할 수 있습니다.
+4. **기타 요인**: 특별한 재능이나 경험 등이 있다면 합격 가능성도 있을 수 있습니다.
+현재 상황에서는 최종합격 확률이 매우 낮다고 판단되지만, 모든 가능성을 열어두는 것이 좋습니다. 학교 홈페이지에서 추가 정보를 확인하고, 필요하다면 입학처에 문의해 보세요.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보가 없다고 언급하고 있지만, 원본 텍스트에서는 법경찰행정학부가 존재하지 않는다고 명확히 설명하고 있습니다. 또한, 응답에서 제시된 성적 기준은 원본 텍스트의 내용과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않는 부분이 많습니다. 특히, 법경찰행정학부에 대한 정보가 없다고 하면서도 일반적인 대입 경향에 대한 설명을 추가하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 대입 경향에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 핵심 내용인 경찰행정학과의 성적 기준에 대한 정보와는 관련성이 떨어집니다. 따라서 부분적으로 관련성이 있지만, 주제에서 벗어난 부분이 많습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 가지 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 법경찰행정학부에 대한 정보가 없다고 하면서도 관련된 내용을 설명하는 부분에서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 성적 기준에 대한 설명이 원본 텍스트와 다르며, 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있으며, 원본 텍스트와의 관계에서 부정확한 정보를 포함하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 법경찰행정학부에 대한 정보가 없다는 점에서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 내용이 복잡하게 표현되어 있어 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.7711135890851606</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부의 정시모집에 대한 정보는 제공된 자료에서 직접적으로 확인하기 어렵습니다. 하지만 일반적인 대입 경향과 동의대학교의 전형 특성을 고려해 추론할 수 있습니다.
+1. **전체적인 성적 평균**: 
+   - 동의대학교는 중등교육 과정에서 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사를 중심으로 평균성적을 산출합니다.
+   - 이 중 국어, 수학, 영어, 사회, 과학, 한국사의 석차등급 평균이 주요한 기준이 됩니다.
+2. **안정권 성적**:
+   - 안정권으로 간주되는 성적은 대략적으로 전 모집단위에서 국어, 수학, 영어, 사회(역사/도덕 포함), 과학, 한국사의 석차등급 평균이 A등급을 받는 수준입니다.
+   - 예를 들어, 6과목 중 5개 이상이 A등급을 받고 나머지 1개가 B등급 정도면 안정적인 성적을 보여줄 수 있습니다.
+3. **문 닫고 들어갈 수 있는 성적**:
+   - 문 닫고 들어갈 수 있는 성적은 더 높은 등급을 요구합니다.
+   - 이 경우, 6과목 중 4개 이상이 A등급이고 나머지 2개가 B등급 정도의 성적이 필요할 것입니다.
+4. **학과 특성**:
+   - 법경찰행정학부는 사회과학 분야에 속하므로, 사회 과목(역사/도덕 포함)에서 높은 점수를 받는 것이 중요합니다.
+   - 또한, 이 학과의 특성상 국어와 영어에서도 좋은 성적을 보여줘야 합니다.
+5. **추천**:
+   - 정확한 성적 기준은 동의대학교 입학처 홈페이지나 전화로 문의하는 것이 가장 정확합니다.
+   - 또한, 최근 몇 년간의 합격자들의 성적 분포를 참고하여 더 구체적인 목표를 설정할 수 있습니다.
+이러한 정보를 바탕으로 추정하면, 법경찰행정학부에 정시로 들어갈려면 평균성적이 A등급을 받는 수준에서 안정권을 유지하고, B등급을 받는 수준에서는 문 닫고 들어갈 수 있을 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 5.33이라는 점수가 높은 점수라고 언급하고 있으며, 합격 가능성에 영향을 미치는 여러 요인들을 제시하고 있습니다. 그러나 원본 텍스트에서 제공된 아동학과의 평균 등급과 관련된 정보는 포함되어 있지 않아, 일부 사실이 누락된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 보육가정상담학과와 아동학과의 관계에 대한 명확한 언급이 부족하여 일관성이 떨어집니다. 특히, 아동학과의 평균 등급에 대한 정보가 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 합격 가능성에 영향을 미치는 다양한 요인들을 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 5.33이라는 점수에 대한 해석이 적절하며, 합격 가능성에 대한 다양한 요인을 제시하고 있습니다. 그러나 원본 텍스트의 구체적인 수치와 비교할 때 일부 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 긍정적인 평가를 받습니다. 그러나 일부 사실이 누락되어 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로도 적절합니다. 그러나 원본 텍스트의 특정 세부사항이 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 정보를 전달하고 있습니다. 다만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.5377239610357432</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급은 상당히 높은 점수입니다. 그러나 합격 가능성은 여러 요인에 따라 달라질 수 있습니다:
+1. **전체 모집인원**: 보육가정상담학과의 정시 모집인원을 확인해야 합니다.
+2. **경쟁률**: 해당 학과의 경쟁률이 어느 정도인지 파악해야 합니다. 경쟁률이 높다면, 5.33이라는 점수는 좋은 성적일 수 있습니다.
+3. **전형방법**: 동의대학교의 정시 전형 방법을 확인해야 합니다. 예를 들어, 수능성적이 주요한 역할을 하는지, 학생부가 중요한 역할을 하는지 등에 따라 달라질 수 있습니다.
+4. **기타 요인**: 입학사정관제, 면접 등의 추가 평가 항목이 있는 경우도 고려해야 합니다.
+5. **최저합격선**: 최저합격선을 확인하여 5.33이 그 이상인지 확인해야 합니다.
+만약 위의 정보들을 모두 고려하고 5.33이라는 점수가 충분히 높다면, 합격 가능성은 상당히 높습니다. 그러나 정확한 판단을 위해서는 동의대학교 입학처나 관련 홈페이지를 통해 최신 정보를 확인하는 것이 좋습니다.
+추가로, 동의대학교의 입학사정관제나 면접 등 추가 평가 항목이 있다면, 해당 부분에서도 좋은 성적이나 경력을 보여줄 필요가 있습니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원 합격자 발표 및 등록 과정에 대한 정보를 잘 반영하고 있으며, 예비 12번의 합격 가능성에 대한 설명도 적절합니다. 그러나 일부 세부 사항이 원본 텍스트와 다소 다르게 표현되어 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 일관성을 유지하고 있습니다. 다만, 일부 추가적인 정보가 포함되어 있어 약간의 일관성 저하가 있을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 예비 12번의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 몇몇 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요인이 합격 여부에 미치는 영향을 잘 설명하고 있습니다. 그러나 일부 문장 간의 연결이 다소 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 충원 합격의 조건에 대한 설명도 적절합니다. 그러나 일부 세부 사항에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 약간의 개선이 필요한 부분이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현에서 약간의 의미 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.849658964219196</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 경우, 충원 합격자 발표 및 등록 과정이 상당히 철저하게 진행됩니다. 특히 3차 충원합격자 발표 이후에는 예비후보 순위에 따라 추가로 합격자를 선발할 수 있습니다.
+예비 12번으로 받았다면, 이는 예비 후보 중에서 12번째로 등록해야 할 자리를 의미합니다. 이 경우에도 합격 가능성은 존재하지만, 확실한 것은 아닙니다. 다음과 같은 요인들이 합격 여부에 영향을 미칠 수 있습니다:
+1. **등록금 납부 기일**: 지정된 기간 내에 등록금을 납부해야 합니다. 이 기간이 끝나면 포기자로 간주됩니다.
+2. **예비후보 순위**: 예비 12번으로 받았다면, 앞서 선발된 학생들이 등록하지 않으면 합격할 수 있습니다.
+3. **등록 포기자 발생**: 이전에 발표된 충원합격자 중 일부가 등록을 포기하는 경우, 그 자리를 예비후보 순위에 따라 다시 차지할 수 있습니다.
+4. **모집인원 미달 시 추가 모집**: 정시 모집에서 모집인원이 미달될 경우, 이월된 결원을 통해 추가 합격자를 선발할 수도 있습니다.
+따라서, 예비 12번으로 받았다면 합격 가능성은 있으나, 확실한 것은 아닙니다. 최종 결정은 등록금 납부 기간 내에 등록 여부와 이전 합격자들의 등록 상황에 따라 결정됩니다.
+추가적으로, 동의대학교 입학관리 홈페이지를 통해 실시간으로 합격자 발표 및 등록 정보를 확인하는 것이 좋습니다. 또한, 전화 연락을 받지 못한 경우에도 충원합격이 되었는지 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 점수가 높은 점수라고 언급하고 있지만, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 결론과는 상충하는 부분이 있습니다. 유아교육학과의 평균 점수가 4.18로, 4.75는 경쟁력 있는 점수이지만, 원본 텍스트에서 제시된 정보와는 다소 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 입학하기 위한 여러 요소를 설명하고 있지만, 원본 텍스트에서 제시된 "4.75의 성적으로는 유아교육학과에 지원하기 어려울 것"이라는 정보와 일치하지 않습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 조건을 다루고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 4.75라는 점수가 높은 점수라고 언급하지만, 유아교육학과에 지원하기 어려울 것이라는 원본 텍스트의 정보와 상충합니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트와의 불일치로 인해 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 적절한 정보를 제공하고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트와의 일치성이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 설명을 제공합니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.6669992088770001</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대다수 고등학교에서는 90점대 중반에서 100점을 넘는 점수가 많지 않습니다. 따라서 4.75라는 점수는 매우 우수한 성적이라고 볼 수 있습니다.
+유아교육학과에 입학하기 위해서는 주로 다음과 같은 요소들을 고려합니다:
+1. **수능 성적**: 유아교육학과의 경우, 일반적으로 높은 수능 성적이 요구됩니다. 4.75라는 점수는 대부분의 대학에서 매우 경쟁력 있는 성적입니다.
+2. **학생부 종합 평가**: 일부 대학에서는 학생부 종합 평가를 중요하게 고려합니다. 이는 학생의 인성, 학업역량, 전공 적합성 등을 평가하는 것입니다. 따라서 좋은 학생부 성적과 활동 기록이 필요할 수 있습니다.
+3. **면접 및 실기**: 일부 유아교육학과에서는 면접이나 실기를 요구하기도 합니다. 이는 지원자의 인성을 더 잘 파악하고자 하는 경우입니다.
+4. **추천서 등 추가 서류**: 일부 대학에서는 추천서나 자기소개서 등을 요구할 수 있습니다.
+따라서 4.75라는 점수로 유아교육학과에 입학하기는 어렵지 않을 것입니다. 그러나 경쟁률이 매우 높을 수 있으므로, 다음과 같은 조언들이 도움이 될 수 있습니다:
+- **학생부 성적 및 활동**: 좋은 학생부 성적과 다양한 활동 기록을 보유하고 있어야 합니다.
+- **면접 준비**: 면접에서는 지원자의 인성과 유아교육에 대한 열정 등을 잘 표현해야 합니다.
+- **추천서 작성**: 가능하다면 선생님이나 다른 교사의 추천서를 받아볼 수 있습니다.
+결론적으로, 4.75라는 점수로는 유아교육학과에 입학하기 어렵지 않을 것입니다. 그러나 경쟁률이 높으므로 다양한 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으며, 4.16의 등급이 평균 등급보다 높은 점수를 가지고 있다는 점을 언급하고 있습니다. 그러나, 응답에서 제시된 평균 등급(3.5~4.0)은 정확하지 않으며, 이는 다소 부정확한 정보로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 보육가정상담학과의 평균 등급에 대한 언급이 다릅니다. 원본 텍스트는 아동학과의 평균 등급이 6.33과 7.08이라고 명시하고 있어, 생성된 응답의 정보와 일치하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과에 대한 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나, 일부 정보가 원본 텍스트와 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 4.16의 등급이 합격 가능성이 있다고 언급하지만, 평균 등급에 대한 정보가 부정확하여 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성과 유창성에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 일부 문제로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 평균 등급에 대한 부정확한 정보가 의미 전달에 영향을 미칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 구조를 가지고 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.6198954339284701</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육·가정상담학과(아동학과)로 정시 모집에 지원하는 경우, 합격 가능성은 있습니다만 확실하지 않습니다. 이유는 다음과 같습니다:
+1. **학과 특성**: 보육·가정상담학과는 일반적으로 인문사회과학 분야의 학과로, 수능 등급이 중간 수준에서 좋은 성적을 요구받습니다.
+2. **등급 평균**: 동의대학교의 정시 모집에서는 각 학과별로 등급 평균이 다르게 설정됩니다. 보육·가정상담학과의 경우, 일반적으로 3.5~4.0 정도의 등급을 요구받는 경향이 있습니다.
+3. **경쟁률**: 동의대학교의 정시 모집은 각 학과별로 많은 지원자가 참여하기 때문에, 경쟁률이 높습니다. 따라서 4.16등급으로도 합격할 수 있지만, 확실한 것은 아닙니다.
+4. **추합 점수**: 추합 점수가 중요합니다. 만약 추합 점수가 높다면 합격 가능성은 더 높아집니다. 추합 점수는 수능과 실기(또는 실적)의 점수를 합산한 것입니다.
+5. **추천서 및 자기소개서**: 이들 서류도 중요한 요인입니다. 잘 작성된 추천서와 자기소개서가 합격에 큰 도움이 될 수 있습니다.
+따라서, 4.16등급으로 보육·가정상담학과를 지원한다면:
+- **추합 점수**를 확인하고, 이 점수가 학과별 평균 추합 점수보다 높다면 합격 가능성은 더 높아집니다.
+- **추천서 및 자기소개서**를 잘 준비하여 강점을 부각시킵니다.
+결론적으로, 4.16등급으로도 합격할 수 있지만, 확실한 것은 아닙니다. 정확한 합격 가능성은 동의대학교 입학처에 문의하거나, 해당 학과의 최근 모집 정보를 확인하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 원문과 상반된 내용을 담고 있습니다. 정시모집에 대한 정보가 포함되어 있으며, 이는 원문과 명백히 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문은 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시모집에 대한 정보를 제공하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없습니다. 원문이 정시 지원 불가능성을 언급하는 반면, 생성된 응답은 정시모집에 대한 구체적인 정보를 제공하고 있어 주제와 관련이 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관계가 부적절하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 전혀 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.3748066748528704</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 소프트웨어융합학과는 &lt;나&gt;군 실기/실적 위주전형으로 모집됩니다. 이 전형은 학생부교과 성적 30%와 서류(실적) 70%로 평가되며, 정원외에서는 서류(학생부) 60%와 면접 40%로 평가됩니다.
+정확한 등급 기준은 모집단위별로 다를 수 있지만, 일반적으로 동의대학교에서 소프트웨어융합학과에 합격하기 위해서는 다음과 같은 성적을 갖추는 것이 바람직합니다:
+1. **학생부교과성적**:
+   - 국어: 8등급 이상
+   - 수학: 7등급 이상
+   - 영어: 6등급 이상
+2. **서류(실적) 성적**:
+   - 실기/실적 위주전형에서는 학생부교과성적이 주요 평가 기준이므로, 국어, 수학, 영어 등 주요 과목에서 높은 등급을 받는 것이 중요합니다.
+3. **면접 성적**:
+   - 정원외 전형인 경우 면접 점수도 고려되므로, 면접 준비를 철저히 해야 합니다.
+정확한 등급 기준은 동의대학교 입학처 홈페이지나 모집요강을 확인하는 것이 가장 정확합니다. 또한, 최근 몇 년간의 합격자 성적 분석을 통해 더 구체적인 정보를 얻을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보를 포함하고 있으며, 면접 점수와 세특 내용이 중요하다는 점을 언급하고 있습니다. 그러나 원본 텍스트에서 명시된 서류 평가의 구체적인 항목(공동체 역량, 학업 역량, 전공 적합성)에 대한 언급이 부족하여 완전한 정확성을 결여하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 서류 평가의 구체적인 항목에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 또한, 면접 준비에 대한 추가 정보는 원본 텍스트에 명시되지 않은 내용입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어융합학과 지원 시 필요한 정보와 관련된 내용을 잘 다루고 있으며, 원본 텍스트의 주요 주제와 직접적으로 관련이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 정확한 정보를 제공하지만, 원본 텍스트에서 언급된 특정 평가 기준에 대한 세부 사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 추가 정보가 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.5670891844038898</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>『소프트웨어융합학과』에 지원할 때는 면접 점수와 세특(학교생활기록부) 내용 모두 중요하게 평가받습니다. 특히, 이 학과의 특성상 프로그래밍 능력이나 관련 경험을 가진 지원자의 경우 긍정적으로 평가될 수 있습니다.
+서류 준비에 있어서는 주요한 점들은 다음과 같습니다:
+1. **학교생활기록부**: 세특 영역에서 소프트웨어 개발, 알고리즘 이해, 프로그래밍 경험이나 관련 동아리 활동 등을 자세히 기재해야 합니다.
+2. **면접 준비**: 면접에서는 지원자의 문제 해결 능력과 전공적합성에 대해 질문이 많이 나올 수 있으므로, 이와 관련된 경험을 미리 준비해두는 것이 좋습니다.
+따라서, 소프트웨어융합학과를 지원할 때는 세특 내용뿐만 아니라 면접에서도 좋은 성적을 받기 위한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자 평균 등급에 대한 정보가 잘못되었습니다. 원본 텍스트에서는 최초합격자의 수능 4개 영역 등급 평균이 4.12라고 명시되어 있지만, 생성된 응답에서는 5.06이라는 잘못된 수치를 제시하고 있습니다. 이로 인해 사실성이 낮아졌습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.08의 성적이 최초합격자의 평균 등급보다 약간 높은 수준이라고 언급하고 있지만, 생성된 응답에서는 다른 점수와 평균을 제시하여 혼란을 초래하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 소프트웨어공학부의 최초합격자에 대한 정보를 제공하고 있지만, 원본 텍스트의 핵심 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 점수를 나열하고 결론을 제시하지만, 전체적인 논리적 흐름이 다소 부족합니다. 원본 텍스트의 주제와 관련된 정보가 명확하게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 특히, 수능 4개 영역 등급 평균에 대한 잘못된 수치가 포함되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다. 유창성과 관련성은 다소 괜찮지만, 전체적으로 낮은 품질을 반영합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보로 인해 의미 전달이 왜곡되었습니다. 따라서 의미적 적절성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성 점수는 높지만, 완벽하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.7395742746933625</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부의 최초합격자를 위한 평균 및 표준 편차를 살펴보겠습니다.
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 317.87 / 9.08
+- **영어 등급 평균**: 3.77 / 0.67
+- **수능 4개 영역 등급 평균**: 5.06 / 1.22
+주요 점수를 보면, 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합은 317.87이며, 이는 4.08보다 약간 낮습니다. 그러나 동의대학교 소프트웨어공학부의 경쟁률이 매우 높기 때문에, 단순히 점수가 조금 낮다고 해서 불가능하다고 할 수는 없습니다.
+**결론**: 
+- **국어 + 수학 + 탐구(2개) 표준 변환 점수 합**: 317.87 (4.08보다 약간 낮음)
+- **영어 등급 평균**: 3.77 / 0.67
+- **수능 4개 영역 등급 평균**: 5.06 / 1.22
+이러한 점수는 최초합격자로 선발될 가능성이 있지만, 경쟁률이 매우 높기 때문에 확실하지 않습니다. 동의대학교 소프트웨어공학부의 최종 합격자는 다양한 요인에 따라 결정되므로, 정확한 예측은 어렵습니다.
+추가적으로, 지원자의 전반적인 성적과 경쟁력을 고려하여 최선을 다해야 합니다. 또한, 다른 모집단위에서도 관심을 가지고 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보가 없다는 점을 언급하고 있으나, 평균 5등급으로 지원 가능성이 있다는 주장은 다소 일반화된 정보로, 정확한 사실을 반영하지 못하고 있다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일부 일치하지만, 추가적인 정보와 조언을 제공하는 부분에서 원본의 정보와 일관성이 떨어진다. 특히, 모집인원과 경쟁률에 대한 언급이 원본의 내용과는 다소 다른 방향으로 나아가고 있다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본에서 제공된 정보에 대한 직접적인 답변보다는 일반적인 조언을 포함하고 있어 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이다. 그러나 일부 문장에서 다소 복잡한 표현이 사용되어 가독성이 떨어질 수 있다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있다. 그러나 원본 텍스트와의 연결성이 약간 부족하다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 5등급으로 지원 가능성에 대한 주장은 구체적인 사실에 기반하지 않으며, 원본의 정보와는 다소 차이가 있다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 여러 차원에서 중간 정도의 품질을 보인다. 그러나 사실성과 일관성에서 부족함이 있어 전체적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보는 다소 일반적이어서 구체성이 떨어진다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6085474807738626</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 데이터에서 소프트웨어융합학과의 정시 모집인원은 표에 명시되어 있지 않습니다. 그러나 일반적으로 대학입학에서는 학생부 교과성적 등급이 중요한 평가 요소 중 하나입니다.
+평균 5등급으로는 일부 학과에서 지원 가능성이 있지만, 각 학과의 경쟁률과 모집인원, 그리고 해당 학과의 요구하는 최저 등급 등을 고려해야 합니다. 
+특히 소프트웨어융합학과와 같은 공과대학 학과는 보통 높은 경쟁률을 가지고 있으며, 평균 5등급으로 지원하기 위해서는 다음과 같은 점들을 확인해보시는 것이 좋습니다:
+1. **경쟁률**: 해당 학과의 최신 경쟁률을 확인합니다.
+2. **모집인원**: 모집인원이 얼마나 되는지 파악합니다.
+3. **최저 등급**: 해당 학과에서 요구하는 최저 등급을 확인합니다.
+따라서, 정확한 답변을 위해서는 동의대학교 입학관리 홈페이지나 총장실에서 제공하는 최신 정보를 참고하시거나, 직접 입학처에 문의하시는 것이 가장 확실합니다. 
+추가로, 지원 가능성을 판단하기 위해 다음과 같은 자료도 확인해보시는 것을 추천드립니다:
+- 동의대학교 입학관리 홈페이지
+- 총장실에서 제공하는 최신 모집요강 및 학과별 요구사항
+이러한 정보를 바탕으로 더 정확한 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 일부 세부사항(예: 모집인원, 지원자 수, 점수 분포 등)이 원본 텍스트에 명시되어 있지 않거나 정확하지 않습니다. 따라서, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 추가된 정보가 원본과 일치하지 않거나 모순되는 부분이 있습니다. 예를 들어, 경쟁률과 점수 분포에 대한 정보는 원본에 포함되어 있지 않으므로 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 지원 가능성에 대한 논의가 포함되어 있습니다. 그러나 일부 추가 정보가 원본과 직접적으로 관련이 없을 수 있어 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 일부 정보가 원본과의 연결이 약해 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 추가된 정보가 정확하지 않거나 원본과 일치하지 않는 부분이 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성, 일관성, 정확성에서의 문제로 인해 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 추가 정보가 맥락에 맞지 않을 수 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 복잡한 표현이 있을 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.6005568007616019</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>4.28이라는 점수를 가지고 동의대학교 신소재공학과에 지원하는 것은 가능하지만, 확실한 합격을 보장할 수는 없습니다. 이유는 다음과 같습니다:
+1. **모집인원과 지원자 수**: 신소재공학과의 정원은 56명이며, 지원자는 81명입니다. 이는 경쟁률이 높아 보입니다.
+2. **점수 분포**: 표에서 제공된 데이터를 보면, 해당 학과의 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 평균은 271.64로, 표준 편차는 19.52입니다. 이는 전체 지원자의 점수가 상대적으로 분산되어 있다는 것을 의미합니다.
+3. **경쟁률**: 경쟁률이 1.45:1이라는 것은 이미 많은 지원자가 높은 점수를 받고 있는 것을 나타냅니다.
+4. **개인 성적**: 4.28이라는 점수는 표준 변환 점수로 보았을 때, 평균보다 약간 높은 수준입니다. 그러나 경쟁률이 높기 때문에, 이 점수만으로 합격을 보장받기는 어렵습니다.
+**추천 사항:**
+- **추가 지원**: 다른 대학이나 전형군에 추가로 지원하는 것이 좋습니다.
+- **면접 준비**: 신소재공학과는 종종 면접 과정이 포함될 수 있으므로, 면접 준비를 철저히 해두세요.
+- **자기소개서 및 서류 준비**: 자기소개서와 기타 서류가 중요하므로, 이 부분도 잘 준비해 두세요.
+결론적으로, 4.28이라는 점수로는 신소재공학과에 합격하기 어렵지만, 추가 지원과 철저한 준비를 통해 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 일반학생전형에서 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "일부 모집단위에서 자기소개서를 제출할 수도 있다"는 부분은 다소 모호하며, 실제로 어떤 모집단위에서 요구되는지에 대한 구체적인 정보가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 기본적으로 수능 일반학생전형에 대한 정보를 제공하지만, 자기소개서가 필요 없다는 원래의 출처와는 약간의 차이가 있습니다. 일부 모집단위에서 자기소개서를 요구할 수 있다는 점은 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련이 깊으며, 수능 일반학생전형에 대한 정보를 잘 설명하고 있습니다. 자기소개서의 필요성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 정보가 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 자기소개서의 필요성에 대한 부분에서 다소 모호한 점이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등에서 좋은 점수를 받았습니다. 그러나 일부 모호한 부분이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절합니다. 그러나 일부 추가 정보가 주제에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.6348363534219655</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 나군 수능(일반학생전형)에서는 자기소개서 작성은 필수사항이 아닙니다. 이 전형 방식은 주로 수능 점수와 관련된 성적을 기준으로 합격자를 선발합니다.
+다만, 일부 모집단위에서 자기소개서를 제출할 수도 있으므로, 정확한 정보는 동의대학교 입학 홈페이지나 해당 모집요강을 확인하시기 바랍니다. 만약 자기소개서가 필요하다면, 요구 사항과 형식은 해당 모집단위의 전형요강에 명시되어 있을 것입니다.
+일반적으로 수능(일반학생전형)에서는 자기소개서가 아닌 수능 점수와 학교생활기록부 등이 주요 평가 요인으로 작용합니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수에 대한 해석과 추가 모집에 대한 여러 요소를 고려해야 한다는 점을 잘 설명하고 있습니다. 그러나, 원본 텍스트에서 언급된 특정 학과의 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집에 대한 정보와 합격 가능성을 평가하는 요소들을 잘 연결하고 있습니다. 다만, 원본 텍스트의 특정 수치(예: 평균 등급)와는 직접적으로 연결되지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 매우 관련이 깊습니다. 수능 점수와 추가 모집에 대한 질문에 대해 적절한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원본 텍스트에서 제공된 특정 수치나 데이터에 대한 언급이 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 설명되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.586844669866652</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 수능 표준점수를 의미하는 것 같습니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 여러 요소들을 고려해야 합니다:
+1. **모집인원과 지원자 수**: 추가모집의 모집인원이 얼마나 되며, 지원자가 몇 명인지 확인해야 합니다.
+2. **전형방법**: 각 전형별로 다른 산출방법이 적용되므로, 해당 전형의 점수 반영 방식을 파악해야 합니다.
+3. **성적 순위**: 4.5라는 점수가 전체 지원자 중 어느 위치에 있는지 확인해야 합니다. 이는 합격 가능성을 결정하는 중요한 요소입니다.
+4. **기타 평가요소**: 일부 전형에서는 실기, 면접 등 다른 평가요소도 고려될 수 있으므로 이를 고려해야 합니다.
+5. **전년도 데이터**: 과거의 추가모집 결과를 참고하여 현재 상황과 비교해볼 수도 있습니다.
+추가모집에 합격할 확률을 정확히 예측하기 위해서는 위와 같은 정보들을 종합적으로 분석해야 합니다. 만약 구체적인 전형명이나 모집단위, 지원자의 전체 성적 등 추가 정보를 제공해주신다면 더 정확한 답변을 드릴 수 있을 것 같습니다.
+관련 자세한 내용은 동의대학교 입학처 홈페이지나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학부의 정시 모집에 대한 구체적인 등급 정보를 제공하지 않으며, 원본 텍스트에서 언급된 평균 등급(영어 5.06, 수능 5.78)을 직접적으로 반영하지 않고 있습니다. 그러나, 합격 가능성에 대한 언급은 원본의 내용을 어느 정도 반영하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 구체적인 등급 정보를 제공하지 않음으로써 일관성이 떨어집니다. 원본 텍스트의 평균 등급에 대한 정보가 누락되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학부의 정시 모집에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 데이터와 직접적으로 연결되지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 않아 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 정보를 누락하고 있으며, 이는 정확성에 영향을 미칩니다. 그러나 일반적인 정보는 정확하게 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 수치와 정보를 누락하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.6545774330294852</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학부의 정시 모집에서 필요한 등급에 대한 구체적인 정보가 없습니다. 표에서는 신소재공학과와 분자나노공학과를 포함한 모집단위의 평균 점수와 표준 편차 등을 제공하고 있지만, 합격 가능 등급을 직접적으로 알려주지는 않습니다.
+신소재공학부에 지원하려면 다음과 같은 정보를 확인해야 합니다:
+1. 동의대학교 입학 홈페이지에서 최신 모집요강을 확인하세요.
+2. 해당 학과의 정시 모집 기준 점수와 등급을 확인하세요.
+3. 과거 수능 성적 분석 자료를 참고하세요.
+일반적으로 대학별로 정시 모집에서는 국어, 수학, 영어 등의 최소 등급이 요구되며, 일부 학과는 탐구 과목의 등급도 고려할 수 있습니다. 따라서 동의대학교 신소재공학부의 정시 모집 기준을 확인하시기 바랍니다.
+더 자세한 정보를 얻으시려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 447점이 작년 신소재공학과의 평균 점수보다 높다고 언급했지만, 실제로는 378.15점이 평균 점수라는 사실을 간과하고 있습니다. 따라서, 447점이 평균 점수보다 낮을 수 있다는 주장은 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 작년 평균 점수에 대한 정보와 관련하여 여러 요인을 언급하고 있지만, 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 특히, 447점이 평균 점수보다 낮을 수 있다는 주장은 원본 텍스트의 내용과 모순됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 신소재공학과의 입학 가능성에 대한 질문에 대해 여러 요인을 고려하여 설명하고 있습니다. 그러나 원본 텍스트의 구체적인 점수 정보와 직접적으로 연결되지 않는 부분이 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 작용하는지를 설명하는 데 일관성을 유지하고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 447점이 작년 평균 점수보다 낮을 수 있다고 언급했으나, 이는 사실과 다릅니다. 원본 텍스트에 따르면 447점은 평균 점수보다 훨씬 높은 점수입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 원본 텍스트의 구체적인 사실과는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 설명을 제공합니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.5564377909331614</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 단과대학의 최종 평균 점수가 작년에 비해 약간 상승하거나 하락하는 것은 가능합니다. 여러 요인들이 이 결과를 초래할 수 있습니다:
+1. **지원자들의 성적 분포 변화**: 작년 지원자의 성적이 올라갔거나 내려갔을 수 있습니다.
+2. **모집 인원의 변동**: 모집 인원이 늘어나거나 줄어들면 평균 점수가 달라질 수 있습니다.
+3. **입학사정관의 평가 변화**: 입학사정관들이 학생들을 평가하는 기준이나 방법에 변화가 있을 수 있습니다.
+447점이 작년 최종 평균 점수보다 약간 낮은 경우에도, 여전히 충분한 가능성은 있습니다. 하지만 확실하게 예측하기는 어렵습니다. 
+현재의 정보만으로는 정확한 예측을 하기 어렵지만, 447점이 작년 최종 평균 점수보다 약간 낮더라도 충분히 경쟁력 있는 점수가 될 수 있습니다.
+추가적으로, 동의대학교 입학사정관들이 평균 점수를 결정할 때 고려하는 요인들을 잘 이해하고, 자신의 강점을 최대한 부각시킬 수 있도록 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부의 성적 기준과 관련된 정보를 잘 반영하고 있으며, 합격 가능성에 대한 언급도 적절합니다. 그러나 "4.3등급의 수능 성적이 4.1~4.2 등급으로 변환된다"는 부분은 다소 모호하게 표현되어 있어, 정확한 성적 변환 방식에 대한 명확한 설명이 부족합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 신소재공학부의 평균 성적과 비교하여 합격 가능성을 논의하고 있습니다. 다만, "확실한 것은 아닙니다"라는 표현이 다소 불확실성을 추가하여 일관성에 약간의 영향을 미칠 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 신소재공학부의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다. 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 성적 산출 방식과 관련된 정보도 적절하게 포함되어 있습니다. 그러나 성적 변환 방식에 대한 구체적인 설명이 부족하여 정확성에 약간의 아쉬움이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다. 그러나 약간의 개선 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있어 이해 가능성에 약간의 영향을 미칠 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.5701591281552036</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>4.3등급의 수능 성적이 동의대학교에서의 성적 산출 방식에 따라 4.1~4.2 등급으로 변환된다면, 신소재공학과(신소재공학부)의 일반학생전형에서는 합격 가능성이 있습니다만, 확실한 것은 아닙니다.
+다음은 고려해야 할 몇 가지 요인입니다:
+1. **성적 산출 방식**: 동의대학교에서 제공하는 성적 산출 예시와 비교하여 4.1~4.2 등급이 적정 범위 내에 있는지 확인하세요.
+2. **모집인원 및 경쟁률**: 신소재공학과의 모집인원과 지원자 수를 고려해야 합니다. 경쟁률이 높다면, 4.1~4.2 등급으로는 합격하기 어렵습니다.
+3. **전형요소 평가**: 동의대학교의 일반학생전형은 주로 수능 성적을 기반으로 하지만, 일부 모집단위에서는 학생부 교과성적도 고려할 수 있습니다. 따라서 전반적인 학업 역량이 중요합니다.
+4. **기타 요인**: 입학사정관의 평가, 지원자의 특별한 경력 등도 고려될 수 있으므로, 모든 측면을 종합적으로 판단해야 합니다.
+5. **예비 후보 순위**: 모집인원에 미달할 경우 예비후보 순위를 통해 충원될 가능성이 있습니다.
+따라서 4.1~4.2 등급으로는 합격 가능성은 있으나, 확실한 것은 아닙니다. 최종 결정을 내리기 위해서는 동의대학교 입학처 웹사이트에서 공개된 정보와 전형요소를 꼼꼼히 확인하고, 필요하다면 입학사정관과 상담하는 것이 좋습니다.
+추가적으로, 동의대학교의 입학 홈페이지(https://ipsi.deu.ac.kr/main.do)를 방문하여 최신 정보와 자세한 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 성적 기준과 다르며, 특히 평균 점수와 표준 편차가 크게 차이가 나므로 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 없으며, 제공된 성적 기준이 서로 다릅니다. 이는 정보의 일관성을 해칩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 인공지능학과의 성적 기준에 대한 정보를 제공하고 있으나, 원본 텍스트와는 다른 내용을 포함하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 차이로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답의 성적 기준이 원본 텍스트와 크게 다르기 때문에 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 낮은 점수를 받았기 때문에 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트와의 차이로 인해 의미적으로 완전히 적절하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.7128967633071996</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 수능 일반학생전형에 대한 최신 성적 기준을 제공하겠습니다. 이 정보는 예시이며, 실제 모집에서는 변동이 있을 수 있으므로 공식 입학 홈페이지를 확인하시기 바랍니다.
+**인공지능학과 - 2024년 수능 일반학생전형 성적 기준**
+- **국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수**
+  - 평균: 396.29
+  - 표준 편차: 0.68
+**상세 성적 산출 예시**
+- **국어 표준점수**: 104
+- **수학 표준점수 (미적분)**: 108
+- **영어 등급 점수**: 5등급 (99)
+- **탐구 표준점수 (물리Ⅰ, 화학Ⅰ)**: 62
+**산출된 성적**
+\[ \frac{104 + 108 + 99 + 62}{4} = 97.5 \]
+따라서, 이 예시에서는 **국어 104점**, **수학(미적분) 108점**, **영어 5등급 (99점)**, **탐구 62점**을 가진 학생의 평균 성적이 396.29점으로 산출됩니다.
+**주의사항**
+- 실제 모집에서는 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수에 0.1을 곱한 점수가 추가로 반영될 수 있습니다.
+- 성적은 탐구 영역의 두 과목 중 상위 점수를 선택하여 합산합니다.
+**추천 전략**
+- 국어와 수학(미적분)에서 높은 점수를 얻는 것이 중요합니다.
+- 영어 등급을 최대한 높이는 것이 필요합니다.
+- 탐구 과목 중 선택할 때, 자신의 강점을 살려서 성적이 높은 과목을 선택하는 것이 좋습니다.
+이 정보를 참고하여 준비하시길 바랍니다. 실제 모집에서는 변동이 있을 수 있으므로 공식 입학 홈페이지에서 최신 정보를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 5.27이라는 점수가 동의대학교의 정시 모집단위에서 가능할 수 있다는 점을 언급하고 있지만, 구체적인 학과에 대한 정보는 제공하지 않고 있습니다. 원본 텍스트에서 제시된 학과 목록과 평균 성적을 반영하지 않아 사실성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 구체적인 학과와 성적 기준을 언급하지 않아 일관성이 부족합니다. 원본 텍스트의 정보와 비교했을 때, 일부 내용이 누락되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변으로서 관련성이 있지만, 원본 텍스트에서 제공된 구체적인 학과 정보와 성적 기준을 포함하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 질문에 대한 답변으로서 일관된 흐름을 유지하고 있습니다. 그러나 원본 텍스트의 구체적인 정보가 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 5.27이라는 점수가 가능할 수 있다고 언급하지만, 원본 텍스트에서 제시된 구체적인 학과와 성적 기준을 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 구체적인 정보가 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 의미적으로 적절한 내용을 담고 있습니다. 그러나 구체적인 학과 정보가 부족하여 완전한 적절성을 제공하지는 못합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 질문에 대한 답변을 제공합니다. 다만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.6625510875089194</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 정확한 수능 점수가 맞나요? 만약 국어, 수학(미적분/기하), 영어 등급, 탐구 과목의 표준점수 등을 포함한 전체 성적이 5.27이라면, 이 점수로 동의대학교의 정시 모집단위 중 일부는 가능할 수 있습니다.
+다군 (일반학생전형)의 경우, 수능 4개 영역(국어, 수학, 영어, 탐구) 중 상위 3개 영역의 표준점수 및 등급 점수를 합산한 점수로 평균을 내는 방식입니다. 따라서 국어와 수학, 영어 등급이 좋은 성적이라면 충분히 가능할 수 있습니다.
+예를 들어:
+- 국어 5등급
+- 수학(미적분/기하) 4등급
+- 영어 6등급 (107점)
+- 탐구 2개 과목의 표준점수 합산
+이 경우, 상위 3개 영역을 선택하여 평균 점수를 계산하면 가능성이 있습니다.
+하지만 정확한 판단을 위해서는:
+1. 해당 모집단위의 수능 성적 산출 방법을 확인해야 합니다.
+2. 탐구 과목의 표준점수와 등급 점수를 포함하여 전체 성적이 어떻게 평균화되는지 계산해야 합니다.
+따라서, 정확한 정보를 제공하기 위해서는:
+1. 모집단위를 알려주시기 바랍니다.
+2. 전체 수능 성적을 알려주시면 더 정확한 판단이 가능합니다.
+추후에 추가 정보가 있으면 답변을 수정하겠습니다.</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 등급과 관련된 정보를 제공하고 있으며, 4.2라는 점수가 합격 가능성에 미치는 영향을 설명하고 있습니다. 그러나 다군 수능에 대한 언급이 추가되었고, 교과 성적에 대한 정보가 더 필요하다는 점에서 일부 정보가 누락된 것으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일치하는 부분이 있지만, 다군 수능 전형에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 소스 텍스트의 주제와는 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 깊으며, 소프트웨어공학부의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 다소 많은 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 다군 수능에 대한 정보가 소스 텍스트와 직접적으로 연결되지 않아 약간의 부정확성이 있을 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 다군 수능에 대한 언급이 추가되어 약간의 맥락에서 벗어난 느낌을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 정보가 많아 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5344620687003834</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 다군 수능(일반학생전형)에서의 성적이므로, 이 점수만으로 정확한 판단을 내리기는 어렵습니다. 하지만, 교과 성적에 대한 정보가 더 있으면 좀 더 구체적인 답변이 가능할 것입니다.
+교과 성적은 소프트웨어공학부 모집단위의 수능 반영 영역 중 하나로 가산점이 주어지므로, 좋은 교과 성적이 있다면 합격 가능성은 높아질 수 있습니다. 특히, 소프트웨어공학부는 컴퓨터과학 및 관련 분야에 대한 강한 배경을 필요로 하기 때문에, 관련 과목의 고득점을 얻었다면 이점이 있을 것입니다.
+다군 수능(일반학생전형)에서 소프트웨어공학부 모집단위의 수능 반영 영역은 다음과 같습니다:
+- 국어 (화법과작문 또는 언어와매체): 25%
+- 수학 (미적분 또는 기하): 25% (응시자에 한해 10% 가산점)
+- 영어: 25%
+- 탐구 (사회탐구 또는 과학탐구 - 2개 과목 합): 25%
+따라서, 수학과 탐구 영역에서 좋은 성적을 받았다면 이점을 활용할 수 있습니다.
+추가적으로, 동의대학교의 정시 모집요강에 따르면:
+- &lt;나&gt;군 실기/실적(경기실적우수자전형)에서는 학생부교과 18% + 출결 12% + 서류 (실적) 70%로 평가됩니다.
+- &lt;나&gt;군 학생부종합(조기취업형계약학과전형)에서는 서류 (학생부) 60% + 면접 40%로 평가됩니다.
+따라서, 교과 성적을 잘 활용하여 합격 가능성을 높일 수 있습니다. 하지만, 최종 결정은 입학사정관의 심사 결과에 따라 달라질 수 있으므로, 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.
+추가적으로, 동의대학교의 학과별 모집인원과 교직 인증 여부 등을 확인하여 더 구체적인 조언을 받으시는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 화학환경공학부의 평균 등급과 관련된 정보를 포함하고 있으며, 3.92라는 점수에 대한 해석과 합격 가능성에 대한 논의를 포함하고 있습니다. 그러나, 응답에서 제시된 성적 산출 방법에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 성적 산출 방법에 대한 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 3.92 점수에 대한 합격 가능성을 높게 평가하고 있지만, 생성된 응답은 더 많은 정보가 필요하다고 언급하고 있어 약간의 모순이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 3.92 점수에 대한 합격 가능성을 논의하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 부분에서 논리적 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 잘 반영하고 있지만, 성적 산출 방법에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 보여줍니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 성적 산출 방법에 대한 추가 정보는 원본 텍스트와의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.7151177991943075</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 화학환경공학부(화학공학과, 환경공학과, 응용화학과)의 정시 일반학생전형에 합격 가능성은 다음과 같이 판단됩니다:
+1. **성적 기준**: 
+   - 화학환경공학부는 가군(일반학생전형)으로 분류되며, 성적 산출 방법은 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수입니다.
+2. **성적 점수 해석**:
+   - 3.92는 대략적으로 수능 과목의 표준점수를 의미할 수 있습니다.
+   - 예를 들어, 국어 100점, 수학 85점, 영어 4등급(131점), 탐구 70점 등이 합쳐져서 3.92가 나오는 경우가 있을 수 있습니다.
+3. **합격 가능성**:
+   - 화학환경공학부의 정시 일반학생전형은 성적 기준을 충족해야 합니다.
+   - 현재 제공된 정보만으로는 정확한 합격 가능성을 판단하기 어렵습니다. 각 대학별로 최소 합격 점수나 경쟁률 등이 다르기 때문입니다.
+4. **추가 정보 필요**:
+   - 해당 대학의 정시 모집요강을 확인하여, 화학환경공학부의 정시 일반학생전형에 대한 최소 성적 기준을 파악해야 합니다.
+   - 경쟁률이나 합격선 등을 고려하여 판단해야 합니다.
+따라서, 3.92라는 점수만으로는 확실한 결론을 내리기 어렵습니다. 정확한 정보를 얻기 위해서는 해당 대학의 공식 모집요강을 확인하시거나, 입학처에 문의하시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있으며, 원서접수 기간과 제출서류에 대한 절차를 설명하고 있습니다. 그러나, 원본 텍스트에서 제공된 구체적인 수치(예: 평균 점수)와 비교할 때, 이러한 세부 사항이 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 원본 텍스트에서 제공된 특정 수치와 통계에 대한 언급이 없기 때문에 일관성이 떨어집니다. 또한, "정시 성적"이라는 용어 사용이 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 질문에 직접적으로 관련된 정보를 제공합니다. 원본 텍스트의 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 특정 세부 사항이 누락되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 일반학생전형에 대한 정확한 정보를 제공하고 있지만, 원본 텍스트의 구체적인 수치와 통계가 포함되지 않아 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 일부 세부 사항이 누락되어 있어 완전한 의미 전달에는 한계가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.6057278972892851</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 화학환경공학과는 공과대학에 속하며, 해당 학과는 수능(일반학생전형)을 통해 모집합니다.
+수능(일반학생전형)에 지원하기 위해서는 다음과 같은 절차를 따르셔야 합니다:
+1. **원서접수**: 2024년 1월 3일부터 6일까지 원서를 접수해야 합니다.
+2. **제출서류**: 서류 제출이 필요하며, 이때 학생부 온라인 제공 동의가 필요합니다.
+3. **수능 성적**: 수능 성적이 필요합니다.
+당신이 말씀하신 정시 성적 4.25는 일반적으로 수능 점수를 의미하는 것으로 보입니다. 하지만 정확한 수능 성적은 국어, 수학, 영어 등 각 과목의 표준점수와 탐구 과목의 등급을 포함해야 합니다.
+화학환경공학과의 모집요강을 확인하시고, 해당 학과가 요구하는 수능 반영 비율과 가산점을 잘 이해하신 후에 지원하실 것을 권장드립니다. 
+**주의사항:**
+- **수능 성적**: 정시 성적이 아닌 실제 수능 성적을 확인하셔야 합니다.
+- **모집요강**: 동의대학교 공과대학 화학환경공학과의 최신 모집요강을 확인하시고, 해당 학과가 요구하는 수능 반영 비율과 가산점을 잘 이해하십시오.
+만약 추가 정보나 자세한 안내가 필요하다면 [동의대학교 입학정보 홈페이지](https://ipsi.deu.ac.kr/main.do)를 참조하거나 대학 관계자에게 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 4.2의 성적이 영화학과에 합격할 가능성이 낮다고 주장하고 있지만, 원본 텍스트에서는 4.2의 성적이 합격 가능성이 존재한다고 명시하고 있습니다. 이로 인해 사실관계가 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 주장을 하고 있습니다. 원본에서는 4.2의 성적이 합격 가능성이 있다고 했으나, 생성된 응답에서는 합격 가능성이 낮다고 하여 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 영화학과의 입학 전형에 대한 정보를 제공하고 있으며, 관련된 요소들(실기 성적, 서류 평가 등)에 대해 언급하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 성적에 대한 직접적인 언급이 부족하여 약간의 관련성 결여가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 내용을 포함하고 있어 정확성이 낮습니다. 4.2의 성적이 합격 가능성이 있다고 한 원본의 내용을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 불일치로 인해 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 영화학과의 입학 전형에 대한 정보를 제공하고 있으나, 원본 텍스트의 의미와는 다소 다르게 해석되고 있습니다. 따라서 의미적으로 적절하다고 보기 어려운 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으며, 명확한 설명이 포함되어 있습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.5927250154473191</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>4.2의 성적을 가지고 영화학과를 지원하셨다면, 합격 가능성은 낮을 것으로 예상됩니다. 일반적으로 동의대학교의 정시전형에서 영화학과는 실기와 서류 평가가 함께 이루어지며, 수능 점수보다는 실기 능력과 관련된 면접이나 서류 평가가 더 중요하게 작용합니다.
+영화학과의 경우, 실기 평가는 시범 및 실기 종목을 통해 평가되는데, 이 부분이 주요 평가 요소입니다. 따라서 수능 점수보다는 실기 능력과 관련된 준비가 중요합니다.
+하지만 정확한 합격 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **실기 성적**: 실기 부분에서 좋은 평점을 받았다면, 이는 큰 가산점이 될 수 있습니다.
+2. **서류 평가**: 학교생활기록부와 자기소개서 등 서류 평가에서도 긍정적인 점수를 받은 경우, 전체적으로 더 높은 점수를 얻을 수 있습니다.
+3. **경쟁률**: 현재의 경쟁률과 지원자들의 실력 분포에 따라 달라질 수 있습니다.
+따라서, 실기 준비와 서류 작성에 집중하시고, 학교에서 제공하는 실기 준비 가이드를 참고하여 최선을 다해 준비하시는 것이 중요합니다. 또한, 동의대학교 입학 홈페이지나 관계부서에 문의하여 자세한 정보를 얻는 것도 도움이 될 것입니다.
+만약 더 구체적인 조언이 필요하다면, 동의대학교 입학관리팀에 직접 문의하시거나, 학교에서 제공하는 지원자 상담 서비스를 이용하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접 절차를 중국어로 번역한 내용이지만, 원본 텍스트의 내용과는 다소 차이가 있습니다. 예를 들어, "고사장 앞 이동"이 "移动到考场前"로 번역되었지만, 이 표현이 원본의 의미를 완전히 전달하지 못하고 있습니다. 또한, 원본의 "기타 질의응답(제출서류 진위 여부 등)" 부분이 번역에서 누락되었습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 부분이 있으며, 특히 번역 과정에서 일부 내용이 생략되거나 잘못 해석되었습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 면접 절차에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 원본의 모든 세부 사항을 포함하지 않기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬운 중국어로 작성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 면접 절차를 단계별로 설명하고 있습니다. 그러나 원본의 모든 내용을 포함하지 않기 때문에 완전한 일관성은 아닙니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 일부 내용을 정확하게 반영하지 못하고 있으며, 특히 중요한 세부 사항이 누락되었습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 유창성과 관련성에서는 좋은 점수를 받지만, 사실성과 일관성, 정확성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질 점수는 중간 정도입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미를 전달하려고 했지만, 일부 내용이 누락되거나 잘못 해석되어 의미 전달이 완벽하지 않습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.4271010928696977</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>以下是翻译内容：
+面试流程如下：
+1. 进入候考室
+2. 身份确认
+3. 移动到考场前
+4. 进入考场
+5. 发表个人志愿动机及学业计划
+6. 讨论与专业相关的能力和匹配性相关的一般问题并回答质询
+7. 其他质询（提交文件的真实性等）
+8. 离场
+请参考以上流程进行准备。如果有其他具体问题，可以继续提问。</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
